--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['15', '82']</t>
   </si>
   <si>
+    <t>['50', '53']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -701,6 +704,9 @@
   </si>
   <si>
     <t>['40', '45+7', '83']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1497,7 +1503,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1688,7 +1694,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1879,7 +1885,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2070,7 +2076,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2542,7 +2548,7 @@
         <v>1.7</v>
       </c>
       <c r="AT8">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2643,7 +2649,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2733,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2834,7 +2840,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2921,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
         <v>1.6</v>
@@ -3025,7 +3031,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3216,7 +3222,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3303,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -3407,7 +3413,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3789,7 +3795,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3980,7 +3986,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4171,7 +4177,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4744,7 +4750,7 @@
         <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4831,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
         <v>1.6</v>
@@ -4935,7 +4941,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5213,10 +5219,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU22">
         <v>1.35</v>
@@ -5317,7 +5323,7 @@
         <v>80</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5508,7 +5514,7 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5699,7 +5705,7 @@
         <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5890,7 +5896,7 @@
         <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>11</v>
@@ -5980,7 +5986,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU26">
         <v>2.38</v>
@@ -6081,7 +6087,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6654,7 +6660,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6741,7 +6747,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT30">
         <v>0.8</v>
@@ -6935,7 +6941,7 @@
         <v>2.4</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU31">
         <v>2.28</v>
@@ -8182,7 +8188,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8269,7 +8275,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT38">
         <v>0.8</v>
@@ -8373,7 +8379,7 @@
         <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8564,7 +8570,7 @@
         <v>105</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8654,7 +8660,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU40">
         <v>2.2</v>
@@ -8755,7 +8761,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8842,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -8946,7 +8952,7 @@
         <v>106</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9036,7 +9042,7 @@
         <v>0.9</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU42">
         <v>1.99</v>
@@ -9137,7 +9143,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9606,7 +9612,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
         <v>1.1</v>
@@ -9901,7 +9907,7 @@
         <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10283,7 +10289,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10474,7 +10480,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10564,7 +10570,7 @@
         <v>0.9</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU50">
         <v>1.91</v>
@@ -10665,7 +10671,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10856,7 +10862,7 @@
         <v>80</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10943,10 +10949,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU52">
         <v>1.1</v>
@@ -11047,7 +11053,7 @@
         <v>80</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11238,7 +11244,7 @@
         <v>107</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11620,7 +11626,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11707,7 +11713,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
         <v>1.6</v>
@@ -11811,7 +11817,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11901,7 +11907,7 @@
         <v>1.6</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.87</v>
@@ -12002,7 +12008,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12089,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT58">
         <v>0.6</v>
@@ -12193,7 +12199,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12575,7 +12581,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13148,7 +13154,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13238,7 +13244,7 @@
         <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU64">
         <v>1.88</v>
@@ -13339,7 +13345,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13721,7 +13727,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14103,7 +14109,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14190,7 +14196,7 @@
         <v>1.83</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
         <v>1.8</v>
@@ -14572,7 +14578,7 @@
         <v>1.4</v>
       </c>
       <c r="AS71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT71">
         <v>1.1</v>
@@ -14957,7 +14963,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU73">
         <v>2.08</v>
@@ -15058,7 +15064,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15249,7 +15255,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>18</v>
@@ -15339,7 +15345,7 @@
         <v>2.2</v>
       </c>
       <c r="AT75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU75">
         <v>1.85</v>
@@ -16013,7 +16019,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16204,7 +16210,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16395,7 +16401,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16673,7 +16679,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT82">
         <v>0.6</v>
@@ -16777,7 +16783,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16867,7 +16873,7 @@
         <v>1.8</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU83">
         <v>1.93</v>
@@ -17541,7 +17547,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17819,7 +17825,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT88">
         <v>0.9</v>
@@ -17923,7 +17929,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18114,7 +18120,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18395,7 +18401,7 @@
         <v>1.7</v>
       </c>
       <c r="AT91">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU91">
         <v>1.57</v>
@@ -18583,7 +18589,7 @@
         <v>2.14</v>
       </c>
       <c r="AS92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -18878,7 +18884,7 @@
         <v>80</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18968,7 +18974,7 @@
         <v>2.2</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU94">
         <v>1.91</v>
@@ -19069,7 +19075,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19451,7 +19457,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19642,7 +19648,7 @@
         <v>110</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19732,7 +19738,7 @@
         <v>0.7</v>
       </c>
       <c r="AT98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU98">
         <v>1.42</v>
@@ -19833,7 +19839,7 @@
         <v>147</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19920,7 +19926,7 @@
         <v>1.14</v>
       </c>
       <c r="AS99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
         <v>1.1</v>
@@ -20114,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU100">
         <v>1.5</v>
@@ -20215,7 +20221,7 @@
         <v>149</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20406,7 +20412,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20597,7 +20603,7 @@
         <v>150</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20684,7 +20690,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT103">
         <v>0.5</v>
@@ -20788,7 +20794,7 @@
         <v>112</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21170,7 +21176,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21552,7 +21558,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21743,7 +21749,7 @@
         <v>153</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21934,7 +21940,7 @@
         <v>154</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22021,7 +22027,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS110">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT110">
         <v>0.5</v>
@@ -22597,7 +22603,7 @@
         <v>2.2</v>
       </c>
       <c r="AT113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>2.01</v>
@@ -22698,7 +22704,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>1</v>
@@ -22785,7 +22791,7 @@
         <v>1.89</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
         <v>1.8</v>
@@ -22979,7 +22985,7 @@
         <v>0.7</v>
       </c>
       <c r="AT115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23462,7 +23468,7 @@
         <v>160</v>
       </c>
       <c r="P118" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23653,7 +23659,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24177,6 +24183,388 @@
       </c>
       <c r="BK121">
         <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2375082</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>68</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>80</v>
+      </c>
+      <c r="P122" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>4</v>
+      </c>
+      <c r="U122">
+        <v>2.3</v>
+      </c>
+      <c r="V122">
+        <v>2.5</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3.25</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>6</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>4</v>
+      </c>
+      <c r="AD122">
+        <v>3.75</v>
+      </c>
+      <c r="AE122">
+        <v>1.85</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>10</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.67</v>
+      </c>
+      <c r="AK122">
+        <v>2.15</v>
+      </c>
+      <c r="AL122">
+        <v>1.62</v>
+      </c>
+      <c r="AM122">
+        <v>2.2</v>
+      </c>
+      <c r="AN122">
+        <v>1.75</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.29</v>
+      </c>
+      <c r="AQ122">
+        <v>1.4</v>
+      </c>
+      <c r="AR122">
+        <v>1.5</v>
+      </c>
+      <c r="AS122">
+        <v>1.27</v>
+      </c>
+      <c r="AT122">
+        <v>1.64</v>
+      </c>
+      <c r="AU122">
+        <v>1.23</v>
+      </c>
+      <c r="AV122">
+        <v>1.73</v>
+      </c>
+      <c r="AW122">
+        <v>2.96</v>
+      </c>
+      <c r="AX122">
+        <v>2.8</v>
+      </c>
+      <c r="AY122">
+        <v>6</v>
+      </c>
+      <c r="AZ122">
+        <v>1.54</v>
+      </c>
+      <c r="BA122">
+        <v>1.2</v>
+      </c>
+      <c r="BB122">
+        <v>1.54</v>
+      </c>
+      <c r="BC122">
+        <v>1.88</v>
+      </c>
+      <c r="BD122">
+        <v>2.13</v>
+      </c>
+      <c r="BE122">
+        <v>2.91</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>11</v>
+      </c>
+      <c r="BJ122">
+        <v>6</v>
+      </c>
+      <c r="BK122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2375084</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P123" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.38</v>
+      </c>
+      <c r="X123">
+        <v>2.91</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.42</v>
+      </c>
+      <c r="AA123">
+        <v>6.85</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>2.55</v>
+      </c>
+      <c r="AD123">
+        <v>3.3</v>
+      </c>
+      <c r="AE123">
+        <v>2.8</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>11.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.27</v>
+      </c>
+      <c r="AI123">
+        <v>3.38</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.85</v>
+      </c>
+      <c r="AL123">
+        <v>1.73</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.53</v>
+      </c>
+      <c r="AO123">
+        <v>1.31</v>
+      </c>
+      <c r="AP123">
+        <v>1.45</v>
+      </c>
+      <c r="AQ123">
+        <v>1.4</v>
+      </c>
+      <c r="AR123">
+        <v>1.4</v>
+      </c>
+      <c r="AS123">
+        <v>1.55</v>
+      </c>
+      <c r="AT123">
+        <v>1.27</v>
+      </c>
+      <c r="AU123">
+        <v>1.22</v>
+      </c>
+      <c r="AV123">
+        <v>1.34</v>
+      </c>
+      <c r="AW123">
+        <v>2.56</v>
+      </c>
+      <c r="AX123">
+        <v>2.1</v>
+      </c>
+      <c r="AY123">
+        <v>5.25</v>
+      </c>
+      <c r="AZ123">
+        <v>2</v>
+      </c>
+      <c r="BA123">
+        <v>1.39</v>
+      </c>
+      <c r="BB123">
+        <v>1.71</v>
+      </c>
+      <c r="BC123">
+        <v>2.12</v>
+      </c>
+      <c r="BD123">
+        <v>2.93</v>
+      </c>
+      <c r="BE123">
+        <v>4.4</v>
+      </c>
+      <c r="BF123">
+        <v>7</v>
+      </c>
+      <c r="BG123">
+        <v>3</v>
+      </c>
+      <c r="BH123">
+        <v>6</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>13</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,18 @@
     <t>['50', '53']</t>
   </si>
   <si>
+    <t>['34', '54', '64', '70']</t>
+  </si>
+  <si>
+    <t>['5', '15']</t>
+  </si>
+  <si>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['17', '49', '77']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -707,6 +719,18 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['20', '88']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['15', '33', '82']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1336,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1399,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>1.1</v>
@@ -1503,7 +1527,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -1694,7 +1718,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1781,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT4">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1885,7 +1909,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2076,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2166,7 +2190,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2545,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT8">
         <v>1.64</v>
@@ -2649,7 +2673,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2840,7 +2864,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2930,7 +2954,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3031,7 +3055,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3118,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT11">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU11">
         <v>1.49</v>
@@ -3222,7 +3246,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3413,7 +3437,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3795,7 +3819,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3885,7 +3909,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU15">
         <v>1.79</v>
@@ -3986,7 +4010,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4076,7 +4100,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU16">
         <v>2.93</v>
@@ -4177,7 +4201,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4264,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.9</v>
@@ -4646,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT19">
         <v>0.6</v>
@@ -4750,7 +4774,7 @@
         <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4840,7 +4864,7 @@
         <v>1.55</v>
       </c>
       <c r="AT20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU20">
         <v>0.87</v>
@@ -4941,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5323,7 +5347,7 @@
         <v>80</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5410,10 +5434,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT23">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU23">
         <v>1.02</v>
@@ -5514,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5604,7 +5628,7 @@
         <v>1.6</v>
       </c>
       <c r="AT24">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU24">
         <v>1.8</v>
@@ -5705,7 +5729,7 @@
         <v>92</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5792,7 +5816,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT25">
         <v>1.1</v>
@@ -5896,7 +5920,7 @@
         <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>11</v>
@@ -6087,7 +6111,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6556,7 +6580,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>0.5</v>
@@ -6660,7 +6684,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6750,7 +6774,7 @@
         <v>1.55</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU30">
         <v>0.95</v>
@@ -6938,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT31">
         <v>1.27</v>
@@ -7132,7 +7156,7 @@
         <v>2.2</v>
       </c>
       <c r="AT32">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU32">
         <v>2.14</v>
@@ -7511,10 +7535,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7702,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT35">
         <v>1.1</v>
@@ -8188,7 +8212,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8278,7 +8302,7 @@
         <v>1.27</v>
       </c>
       <c r="AT38">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8379,7 +8403,7 @@
         <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8466,7 +8490,7 @@
         <v>0.33</v>
       </c>
       <c r="AS39">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8570,7 +8594,7 @@
         <v>105</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8761,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8952,7 +8976,7 @@
         <v>106</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9143,7 +9167,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9230,10 +9254,10 @@
         <v>2.33</v>
       </c>
       <c r="AS43">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU43">
         <v>1.82</v>
@@ -9907,7 +9931,7 @@
         <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -9994,10 +10018,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT47">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU47">
         <v>1.78</v>
@@ -10289,7 +10313,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10379,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU49">
         <v>1.59</v>
@@ -10480,7 +10504,7 @@
         <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10671,7 +10695,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10761,7 +10785,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU51">
         <v>2.2</v>
@@ -10862,7 +10886,7 @@
         <v>80</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11053,7 +11077,7 @@
         <v>80</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11140,7 +11164,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT53">
         <v>0.9</v>
@@ -11244,7 +11268,7 @@
         <v>107</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11331,10 +11355,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU54">
         <v>1.55</v>
@@ -11522,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>2</v>
@@ -11626,7 +11650,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11716,7 +11740,7 @@
         <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -11817,7 +11841,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12008,7 +12032,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12199,7 +12223,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12289,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="AT59">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU59">
         <v>1.52</v>
@@ -12477,7 +12501,7 @@
         <v>0.4</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -12581,7 +12605,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12859,7 +12883,7 @@
         <v>1.2</v>
       </c>
       <c r="AS62">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT62">
         <v>0.9</v>
@@ -13154,7 +13178,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13241,7 +13265,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.64</v>
@@ -13345,7 +13369,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13432,10 +13456,10 @@
         <v>2.25</v>
       </c>
       <c r="AS65">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT65">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU65">
         <v>1.38</v>
@@ -13727,7 +13751,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13817,7 +13841,7 @@
         <v>0.9</v>
       </c>
       <c r="AT67">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.9</v>
@@ -14109,7 +14133,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14199,7 +14223,7 @@
         <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU69">
         <v>1.19</v>
@@ -14772,7 +14796,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -14960,7 +14984,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT73">
         <v>1.64</v>
@@ -15064,7 +15088,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15151,10 +15175,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU74">
         <v>1.89</v>
@@ -15255,7 +15279,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>18</v>
@@ -15533,7 +15557,7 @@
         <v>2.17</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
         <v>2</v>
@@ -15918,7 +15942,7 @@
         <v>1.6</v>
       </c>
       <c r="AT78">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU78">
         <v>1.99</v>
@@ -16019,7 +16043,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16106,7 +16130,7 @@
         <v>0.2</v>
       </c>
       <c r="AS79">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT79">
         <v>1.1</v>
@@ -16210,7 +16234,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16401,7 +16425,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16488,10 +16512,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT81">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU81">
         <v>1.97</v>
@@ -16783,7 +16807,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17061,10 +17085,10 @@
         <v>1.67</v>
       </c>
       <c r="AS84">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU84">
         <v>1.95</v>
@@ -17547,7 +17571,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17637,7 +17661,7 @@
         <v>2.2</v>
       </c>
       <c r="AT87">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU87">
         <v>1.96</v>
@@ -17929,7 +17953,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18016,7 +18040,7 @@
         <v>1.86</v>
       </c>
       <c r="AS89">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT89">
         <v>2</v>
@@ -18120,7 +18144,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -18210,7 +18234,7 @@
         <v>0.9</v>
       </c>
       <c r="AT90">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU90">
         <v>1.85</v>
@@ -18398,7 +18422,7 @@
         <v>1.71</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT91">
         <v>1.27</v>
@@ -18592,7 +18616,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU92">
         <v>1.23</v>
@@ -18780,10 +18804,10 @@
         <v>1.43</v>
       </c>
       <c r="AS93">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU93">
         <v>1.56</v>
@@ -18884,7 +18908,7 @@
         <v>80</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19075,7 +19099,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19162,7 +19186,7 @@
         <v>0.43</v>
       </c>
       <c r="AS95">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.6</v>
@@ -19356,7 +19380,7 @@
         <v>1.8</v>
       </c>
       <c r="AT96">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -19457,7 +19481,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19544,7 +19568,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT97">
         <v>1.1</v>
@@ -19648,7 +19672,7 @@
         <v>110</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19735,7 +19759,7 @@
         <v>1.63</v>
       </c>
       <c r="AS98">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT98">
         <v>1.27</v>
@@ -19839,7 +19863,7 @@
         <v>147</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20221,7 +20245,7 @@
         <v>149</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20311,7 +20335,7 @@
         <v>0.9</v>
       </c>
       <c r="AT101">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU101">
         <v>1.82</v>
@@ -20412,7 +20436,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20603,7 +20627,7 @@
         <v>150</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20794,7 +20818,7 @@
         <v>112</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20884,7 +20908,7 @@
         <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU104">
         <v>1.85</v>
@@ -21176,7 +21200,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21263,7 +21287,7 @@
         <v>0.75</v>
       </c>
       <c r="AS106">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -21457,7 +21481,7 @@
         <v>1.8</v>
       </c>
       <c r="AT107">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU107">
         <v>1.78</v>
@@ -21558,7 +21582,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21749,7 +21773,7 @@
         <v>153</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21836,7 +21860,7 @@
         <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT109">
         <v>1.1</v>
@@ -21940,7 +21964,7 @@
         <v>154</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22412,7 +22436,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU112">
         <v>1.91</v>
@@ -22600,7 +22624,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>1.27</v>
@@ -22704,7 +22728,7 @@
         <v>84</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>1</v>
@@ -22794,7 +22818,7 @@
         <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU114">
         <v>1.27</v>
@@ -22982,7 +23006,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT115">
         <v>1.64</v>
@@ -23176,7 +23200,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU116">
         <v>1.54</v>
@@ -23468,7 +23492,7 @@
         <v>160</v>
       </c>
       <c r="P118" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23558,7 +23582,7 @@
         <v>2.2</v>
       </c>
       <c r="AT118">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU118">
         <v>1.94</v>
@@ -23659,7 +23683,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -23937,7 +23961,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>0.6</v>
@@ -24128,7 +24152,7 @@
         <v>1.22</v>
       </c>
       <c r="AS121">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT121">
         <v>1.1</v>
@@ -24232,7 +24256,7 @@
         <v>80</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -24565,6 +24589,770 @@
       </c>
       <c r="BK123">
         <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2375086</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>67</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>164</v>
+      </c>
+      <c r="P124" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>2.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>3.42</v>
+      </c>
+      <c r="Y124">
+        <v>2.34</v>
+      </c>
+      <c r="Z124">
+        <v>1.56</v>
+      </c>
+      <c r="AA124">
+        <v>5.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.13</v>
+      </c>
+      <c r="AC124">
+        <v>3.35</v>
+      </c>
+      <c r="AD124">
+        <v>3.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.95</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>10</v>
+      </c>
+      <c r="AH124">
+        <v>1.2</v>
+      </c>
+      <c r="AI124">
+        <v>4.33</v>
+      </c>
+      <c r="AJ124">
+        <v>1.6</v>
+      </c>
+      <c r="AK124">
+        <v>2.2</v>
+      </c>
+      <c r="AL124">
+        <v>1.57</v>
+      </c>
+      <c r="AM124">
+        <v>2.25</v>
+      </c>
+      <c r="AN124">
+        <v>1.85</v>
+      </c>
+      <c r="AO124">
+        <v>1.26</v>
+      </c>
+      <c r="AP124">
+        <v>1.29</v>
+      </c>
+      <c r="AQ124">
+        <v>0.7</v>
+      </c>
+      <c r="AR124">
+        <v>1.6</v>
+      </c>
+      <c r="AS124">
+        <v>0.91</v>
+      </c>
+      <c r="AT124">
+        <v>1.45</v>
+      </c>
+      <c r="AU124">
+        <v>1.36</v>
+      </c>
+      <c r="AV124">
+        <v>1.72</v>
+      </c>
+      <c r="AW124">
+        <v>3.08</v>
+      </c>
+      <c r="AX124">
+        <v>2.7</v>
+      </c>
+      <c r="AY124">
+        <v>5.75</v>
+      </c>
+      <c r="AZ124">
+        <v>1.62</v>
+      </c>
+      <c r="BA124">
+        <v>1.28</v>
+      </c>
+      <c r="BB124">
+        <v>1.61</v>
+      </c>
+      <c r="BC124">
+        <v>1.85</v>
+      </c>
+      <c r="BD124">
+        <v>2.46</v>
+      </c>
+      <c r="BE124">
+        <v>3.48</v>
+      </c>
+      <c r="BF124">
+        <v>8</v>
+      </c>
+      <c r="BG124">
+        <v>10</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>17</v>
+      </c>
+      <c r="BK124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2375083</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>165</v>
+      </c>
+      <c r="P125" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>8</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>4.33</v>
+      </c>
+      <c r="U125">
+        <v>2.2</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2.75</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>7</v>
+      </c>
+      <c r="AB125">
+        <v>1.1</v>
+      </c>
+      <c r="AC125">
+        <v>4</v>
+      </c>
+      <c r="AD125">
+        <v>3.6</v>
+      </c>
+      <c r="AE125">
+        <v>1.91</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>12.25</v>
+      </c>
+      <c r="AH125">
+        <v>1.29</v>
+      </c>
+      <c r="AI125">
+        <v>3.4</v>
+      </c>
+      <c r="AJ125">
+        <v>1.95</v>
+      </c>
+      <c r="AK125">
+        <v>1.85</v>
+      </c>
+      <c r="AL125">
+        <v>1.8</v>
+      </c>
+      <c r="AM125">
+        <v>1.91</v>
+      </c>
+      <c r="AN125">
+        <v>1.83</v>
+      </c>
+      <c r="AO125">
+        <v>1.29</v>
+      </c>
+      <c r="AP125">
+        <v>1.27</v>
+      </c>
+      <c r="AQ125">
+        <v>1.7</v>
+      </c>
+      <c r="AR125">
+        <v>1.8</v>
+      </c>
+      <c r="AS125">
+        <v>1.64</v>
+      </c>
+      <c r="AT125">
+        <v>1.73</v>
+      </c>
+      <c r="AU125">
+        <v>1.66</v>
+      </c>
+      <c r="AV125">
+        <v>1.85</v>
+      </c>
+      <c r="AW125">
+        <v>3.51</v>
+      </c>
+      <c r="AX125">
+        <v>2.95</v>
+      </c>
+      <c r="AY125">
+        <v>6</v>
+      </c>
+      <c r="AZ125">
+        <v>1.57</v>
+      </c>
+      <c r="BA125">
+        <v>1.28</v>
+      </c>
+      <c r="BB125">
+        <v>1.63</v>
+      </c>
+      <c r="BC125">
+        <v>2.08</v>
+      </c>
+      <c r="BD125">
+        <v>2.5</v>
+      </c>
+      <c r="BE125">
+        <v>3.48</v>
+      </c>
+      <c r="BF125">
+        <v>4</v>
+      </c>
+      <c r="BG125">
+        <v>8</v>
+      </c>
+      <c r="BH125">
+        <v>1</v>
+      </c>
+      <c r="BI125">
+        <v>11</v>
+      </c>
+      <c r="BJ125">
+        <v>5</v>
+      </c>
+      <c r="BK125">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2375087</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>66</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="s">
+        <v>166</v>
+      </c>
+      <c r="P126" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q126">
+        <v>8</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="S126">
+        <v>13</v>
+      </c>
+      <c r="T126">
+        <v>3.2</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>3.1</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>3.25</v>
+      </c>
+      <c r="Y126">
+        <v>2.63</v>
+      </c>
+      <c r="Z126">
+        <v>1.44</v>
+      </c>
+      <c r="AA126">
+        <v>6.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.11</v>
+      </c>
+      <c r="AC126">
+        <v>2.63</v>
+      </c>
+      <c r="AD126">
+        <v>3.6</v>
+      </c>
+      <c r="AE126">
+        <v>2.5</v>
+      </c>
+      <c r="AF126">
+        <v>1.03</v>
+      </c>
+      <c r="AG126">
+        <v>12.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.24</v>
+      </c>
+      <c r="AI126">
+        <v>4.05</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>2</v>
+      </c>
+      <c r="AL126">
+        <v>1.62</v>
+      </c>
+      <c r="AM126">
+        <v>2.2</v>
+      </c>
+      <c r="AN126">
+        <v>1.55</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.45</v>
+      </c>
+      <c r="AQ126">
+        <v>2.2</v>
+      </c>
+      <c r="AR126">
+        <v>1.6</v>
+      </c>
+      <c r="AS126">
+        <v>2</v>
+      </c>
+      <c r="AT126">
+        <v>1.73</v>
+      </c>
+      <c r="AU126">
+        <v>2</v>
+      </c>
+      <c r="AV126">
+        <v>1.84</v>
+      </c>
+      <c r="AW126">
+        <v>3.84</v>
+      </c>
+      <c r="AX126">
+        <v>1.8</v>
+      </c>
+      <c r="AY126">
+        <v>6</v>
+      </c>
+      <c r="AZ126">
+        <v>2.3</v>
+      </c>
+      <c r="BA126">
+        <v>1.21</v>
+      </c>
+      <c r="BB126">
+        <v>1.41</v>
+      </c>
+      <c r="BC126">
+        <v>2.25</v>
+      </c>
+      <c r="BD126">
+        <v>2.21</v>
+      </c>
+      <c r="BE126">
+        <v>2.93</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>7</v>
+      </c>
+      <c r="BH126">
+        <v>4</v>
+      </c>
+      <c r="BI126">
+        <v>6</v>
+      </c>
+      <c r="BJ126">
+        <v>9</v>
+      </c>
+      <c r="BK126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2375085</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>72</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>167</v>
+      </c>
+      <c r="P127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>1.91</v>
+      </c>
+      <c r="U127">
+        <v>2.5</v>
+      </c>
+      <c r="V127">
+        <v>6.5</v>
+      </c>
+      <c r="W127">
+        <v>1.3</v>
+      </c>
+      <c r="X127">
+        <v>3.4</v>
+      </c>
+      <c r="Y127">
+        <v>2.5</v>
+      </c>
+      <c r="Z127">
+        <v>1.5</v>
+      </c>
+      <c r="AA127">
+        <v>6</v>
+      </c>
+      <c r="AB127">
+        <v>1.13</v>
+      </c>
+      <c r="AC127">
+        <v>1.44</v>
+      </c>
+      <c r="AD127">
+        <v>4.5</v>
+      </c>
+      <c r="AE127">
+        <v>7.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.01</v>
+      </c>
+      <c r="AG127">
+        <v>14.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.2</v>
+      </c>
+      <c r="AI127">
+        <v>4.5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.7</v>
+      </c>
+      <c r="AK127">
+        <v>2.1</v>
+      </c>
+      <c r="AL127">
+        <v>1.83</v>
+      </c>
+      <c r="AM127">
+        <v>1.83</v>
+      </c>
+      <c r="AN127">
+        <v>1.1</v>
+      </c>
+      <c r="AO127">
+        <v>1.16</v>
+      </c>
+      <c r="AP127">
+        <v>2.75</v>
+      </c>
+      <c r="AQ127">
+        <v>2.4</v>
+      </c>
+      <c r="AR127">
+        <v>0.8</v>
+      </c>
+      <c r="AS127">
+        <v>2.45</v>
+      </c>
+      <c r="AT127">
+        <v>0.73</v>
+      </c>
+      <c r="AU127">
+        <v>1.86</v>
+      </c>
+      <c r="AV127">
+        <v>1.47</v>
+      </c>
+      <c r="AW127">
+        <v>3.33</v>
+      </c>
+      <c r="AX127">
+        <v>1.25</v>
+      </c>
+      <c r="AY127">
+        <v>7.5</v>
+      </c>
+      <c r="AZ127">
+        <v>4.95</v>
+      </c>
+      <c r="BA127">
+        <v>1.25</v>
+      </c>
+      <c r="BB127">
+        <v>1.56</v>
+      </c>
+      <c r="BC127">
+        <v>1.9</v>
+      </c>
+      <c r="BD127">
+        <v>2.34</v>
+      </c>
+      <c r="BE127">
+        <v>3.28</v>
+      </c>
+      <c r="BF127">
+        <v>7</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>12</v>
+      </c>
+      <c r="BI127">
+        <v>2</v>
+      </c>
+      <c r="BJ127">
+        <v>19</v>
+      </c>
+      <c r="BK127">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT6" t="n">
         <v>1.73</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT9" t="n">
         <v>1.27</v>
@@ -2933,7 +2933,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1.08</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT15" t="n">
         <v>0.73</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT16" t="n">
         <v>1.45</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU17" t="n">
         <v>1.91</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU18" t="n">
         <v>2.07</v>
@@ -4354,7 +4354,7 @@
         <v>2.45</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU21" t="n">
         <v>1.82</v>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT24" t="n">
         <v>1.73</v>
@@ -5572,7 +5572,7 @@
         <v>0.91</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.16</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.64</v>
@@ -5975,10 +5975,10 @@
         <v>1.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU27" t="n">
         <v>2.05</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU28" t="n">
         <v>1.47</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU29" t="n">
         <v>2.2</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT32" t="n">
         <v>1.45</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU33" t="n">
         <v>1.65</v>
@@ -7602,7 +7602,7 @@
         <v>1.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU35" t="n">
         <v>1.72</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.76</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.47</v>
@@ -8414,7 +8414,7 @@
         <v>0.91</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU39" t="n">
         <v>1.37</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT40" t="n">
         <v>1.27</v>
@@ -8820,7 +8820,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU41" t="n">
         <v>1.06</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT42" t="n">
         <v>1.64</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU44" t="n">
         <v>1.98</v>
@@ -9632,7 +9632,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>1.26</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU46" t="n">
         <v>1.8</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.77</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT49" t="n">
         <v>1.73</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT50" t="n">
         <v>1.27</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT51" t="n">
         <v>1.73</v>
@@ -11256,7 +11256,7 @@
         <v>0.91</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU53" t="n">
         <v>1.43</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -12065,7 +12065,7 @@
         <v>1.2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT57" t="n">
         <v>1.27</v>
@@ -12271,7 +12271,7 @@
         <v>1.55</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.27</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT59" t="n">
         <v>1.73</v>
@@ -12677,7 +12677,7 @@
         <v>2.45</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU60" t="n">
         <v>1.92</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>2.07</v>
@@ -13083,7 +13083,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13283,10 +13283,10 @@
         <v>2.4</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -13892,10 +13892,10 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU66" t="n">
         <v>1.94</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT67" t="n">
         <v>0.73</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU68" t="n">
         <v>1.49</v>
@@ -14704,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU70" t="n">
         <v>2.01</v>
@@ -14910,7 +14910,7 @@
         <v>1.55</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.26</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
         <v>1.45</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT75" t="n">
         <v>1.27</v>
@@ -15925,7 +15925,7 @@
         <v>1.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.9</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT78" t="n">
         <v>1.73</v>
@@ -16534,7 +16534,7 @@
         <v>0.91</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU79" t="n">
         <v>1.38</v>
@@ -16734,10 +16734,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU80" t="n">
         <v>2.01</v>
@@ -17143,7 +17143,7 @@
         <v>1.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -17749,10 +17749,10 @@
         <v>0.43</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,10 +17952,10 @@
         <v>1.17</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.91</v>
@@ -18155,7 +18155,7 @@
         <v>1.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT87" t="n">
         <v>0.73</v>
@@ -18361,7 +18361,7 @@
         <v>1.55</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU88" t="n">
         <v>1.26</v>
@@ -18564,7 +18564,7 @@
         <v>0.91</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT90" t="n">
         <v>1.73</v>
@@ -19576,7 +19576,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT94" t="n">
         <v>1.64</v>
@@ -19782,7 +19782,7 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT96" t="n">
         <v>0.73</v>
@@ -20188,7 +20188,7 @@
         <v>2.45</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.91</v>
@@ -20594,7 +20594,7 @@
         <v>1.27</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.18</v>
@@ -20794,7 +20794,7 @@
         <v>1.88</v>
       </c>
       <c r="AS100" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT100" t="n">
         <v>1.64</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT101" t="n">
         <v>1.73</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT102" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU102" t="n">
         <v>2.03</v>
@@ -21406,7 +21406,7 @@
         <v>1.55</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU103" t="n">
         <v>1.25</v>
@@ -21606,7 +21606,7 @@
         <v>1.63</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT104" t="n">
         <v>1.45</v>
@@ -21809,10 +21809,10 @@
         <v>0.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.84</v>
@@ -22015,7 +22015,7 @@
         <v>2.45</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -22215,7 +22215,7 @@
         <v>1.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
         <v>1.73</v>
@@ -22418,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU108" t="n">
         <v>1.57</v>
@@ -22624,7 +22624,7 @@
         <v>1.64</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>1.27</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU110" t="n">
         <v>1.19</v>
@@ -23027,10 +23027,10 @@
         <v>2.11</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU111" t="n">
         <v>1.7</v>
@@ -23230,7 +23230,7 @@
         <v>0.89</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT112" t="n">
         <v>0.73</v>
@@ -24042,7 +24042,7 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT116" t="n">
         <v>1.45</v>
@@ -24245,10 +24245,10 @@
         <v>1.22</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU117" t="n">
         <v>1.9</v>
@@ -24448,7 +24448,7 @@
         <v>1.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT118" t="n">
         <v>1.73</v>
@@ -24651,10 +24651,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU119" t="n">
         <v>1.82</v>
@@ -24857,7 +24857,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.64</v>
@@ -25060,7 +25060,7 @@
         <v>2.45</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.05</v>
@@ -26330,6 +26330,1224 @@
       </c>
       <c r="BK127" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2375091</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Fremad Amager</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['45+2', '61']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>12</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2375090</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['60', '68']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3</v>
+      </c>
+      <c r="R129" t="n">
+        <v>8</v>
+      </c>
+      <c r="S129" t="n">
+        <v>11</v>
+      </c>
+      <c r="T129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2375092</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Nykøbing</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>8</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>10</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V130" t="n">
+        <v>7</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2375088</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>FC Helsingør</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['41', '82']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>7</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>9</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V131" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2375089</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['4', '10', '21']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>4</v>
+      </c>
+      <c r="R132" t="n">
+        <v>6</v>
+      </c>
+      <c r="S132" t="n">
+        <v>10</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2375093</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>HB Køge</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Hillerød</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>10</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>13</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -520,16 +520,16 @@
     <t>['17', '49', '77']</t>
   </si>
   <si>
-    <t>['45+2', '61']</t>
-  </si>
-  <si>
-    <t>['84']</t>
+    <t>['41', '82']</t>
   </si>
   <si>
     <t>['4', '10', '21']</t>
   </si>
   <si>
-    <t>['41', '82']</t>
+    <t>['45+2', '61']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -574,10 +574,10 @@
     <t>['7', '50']</t>
   </si>
   <si>
-    <t>['5']</t>
+    <t>['6', '39', '49']</t>
   </si>
   <si>
-    <t>['6', '39', '49']</t>
+    <t>['5']</t>
   </si>
   <si>
     <t>['5', '65', '81']</t>
@@ -712,10 +712,10 @@
     <t>['21', '67', '74', '88']</t>
   </si>
   <si>
-    <t>['90+7']</t>
+    <t>['81', '87']</t>
   </si>
   <si>
-    <t>['81', '87']</t>
+    <t>['90+7']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -742,16 +742,16 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['59']</t>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
   <si>
     <t>['60', '68']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['23']</t>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -4944,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2374180</v>
+        <v>2374183</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -4959,28 +4959,28 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="s">
         <v>80</v>
@@ -4989,145 +4989,145 @@
         <v>186</v>
       </c>
       <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>11</v>
+      </c>
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="R21">
-        <v>9</v>
-      </c>
-      <c r="S21">
-        <v>14</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
       <c r="U21">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X21">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="Y21">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="Z21">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AA21">
-        <v>5.55</v>
+        <v>6.5</v>
       </c>
       <c r="AB21">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC21">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AD21">
         <v>3.8</v>
       </c>
       <c r="AE21">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AF21">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH21">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AI21">
-        <v>4.3</v>
+        <v>3.82</v>
       </c>
       <c r="AJ21">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AK21">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AL21">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AM21">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AN21">
-        <v>1.77</v>
+        <v>2.03</v>
       </c>
       <c r="AO21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AP21">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR21">
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AT21">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="AU21">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="AV21">
-        <v>1.75</v>
+        <v>3.06</v>
       </c>
       <c r="AW21">
-        <v>3.57</v>
+        <v>4.08</v>
       </c>
       <c r="AX21">
-        <v>2.88</v>
+        <v>3.56</v>
       </c>
       <c r="AY21">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ21">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="BA21">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BB21">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BC21">
         <v>2.1</v>
       </c>
       <c r="BD21">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="BE21">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BH21">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="BI21">
         <v>9</v>
       </c>
       <c r="BJ21">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="BK21">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -5326,7 +5326,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2374183</v>
+        <v>2374180</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -5341,28 +5341,28 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
         <v>80</v>
@@ -5371,145 +5371,145 @@
         <v>187</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="Y23">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="Z23">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA23">
-        <v>6.5</v>
+        <v>5.55</v>
       </c>
       <c r="AB23">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AD23">
         <v>3.8</v>
       </c>
       <c r="AE23">
+        <v>1.91</v>
+      </c>
+      <c r="AF23">
+        <v>1.04</v>
+      </c>
+      <c r="AG23">
+        <v>13</v>
+      </c>
+      <c r="AH23">
+        <v>1.18</v>
+      </c>
+      <c r="AI23">
+        <v>4.3</v>
+      </c>
+      <c r="AJ23">
         <v>1.65</v>
       </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>10.5</v>
-      </c>
-      <c r="AH23">
-        <v>1.22</v>
-      </c>
-      <c r="AI23">
-        <v>3.82</v>
-      </c>
-      <c r="AJ23">
-        <v>1.85</v>
-      </c>
       <c r="AK23">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AL23">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AM23">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AN23">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="AO23">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AT23">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="AU23">
-        <v>1.02</v>
+        <v>1.82</v>
       </c>
       <c r="AV23">
-        <v>3.06</v>
+        <v>1.75</v>
       </c>
       <c r="AW23">
-        <v>4.08</v>
+        <v>3.57</v>
       </c>
       <c r="AX23">
-        <v>3.56</v>
+        <v>2.88</v>
       </c>
       <c r="AY23">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ23">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="BA23">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BB23">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BC23">
         <v>2.1</v>
       </c>
       <c r="BD23">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="BE23">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="BF23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BH23">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BI23">
         <v>9</v>
       </c>
       <c r="BJ23">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="BK23">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -6281,7 +6281,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2374189</v>
+        <v>2374186</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -6296,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6311,160 +6311,160 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="P28" t="s">
         <v>80</v>
       </c>
       <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
       <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28">
+        <v>2.05</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>5.5</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>3.25</v>
+      </c>
+      <c r="Y28">
+        <v>2.5</v>
+      </c>
+      <c r="Z28">
+        <v>1.5</v>
+      </c>
+      <c r="AA28">
+        <v>5.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.12</v>
+      </c>
+      <c r="AC28">
+        <v>1.6</v>
+      </c>
+      <c r="AD28">
+        <v>4.33</v>
+      </c>
+      <c r="AE28">
         <v>5</v>
       </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>2.2</v>
-      </c>
-      <c r="V28">
-        <v>3.75</v>
-      </c>
-      <c r="W28">
-        <v>1.36</v>
-      </c>
-      <c r="X28">
-        <v>3</v>
-      </c>
-      <c r="Y28">
-        <v>2.62</v>
-      </c>
-      <c r="Z28">
-        <v>1.44</v>
-      </c>
-      <c r="AA28">
-        <v>6.5</v>
-      </c>
-      <c r="AB28">
-        <v>1.1</v>
-      </c>
-      <c r="AC28">
-        <v>2.15</v>
-      </c>
-      <c r="AD28">
-        <v>3.4</v>
-      </c>
-      <c r="AE28">
-        <v>3.3</v>
-      </c>
       <c r="AF28">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28">
         <v>1.25</v>
       </c>
       <c r="AI28">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="AJ28">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AK28">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AL28">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AN28">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AO28">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>0.82</v>
       </c>
       <c r="AT28">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="AV28">
-        <v>1.39</v>
+        <v>0.74</v>
       </c>
       <c r="AW28">
-        <v>3.59</v>
+        <v>2.21</v>
       </c>
       <c r="AX28">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="AY28">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ28">
-        <v>2.43</v>
+        <v>3.6</v>
       </c>
       <c r="BA28">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BB28">
         <v>1.58</v>
       </c>
       <c r="BC28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD28">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="BE28">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BG28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH28">
+        <v>15</v>
+      </c>
+      <c r="BI28">
+        <v>2</v>
+      </c>
+      <c r="BJ28">
+        <v>27</v>
+      </c>
+      <c r="BK28">
         <v>8</v>
-      </c>
-      <c r="BI28">
-        <v>10</v>
-      </c>
-      <c r="BJ28">
-        <v>10</v>
-      </c>
-      <c r="BK28">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6472,7 +6472,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2374186</v>
+        <v>2374189</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6487,10 +6487,10 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6502,160 +6502,160 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s">
         <v>80</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>2.2</v>
+      </c>
+      <c r="V29">
+        <v>3.75</v>
+      </c>
+      <c r="W29">
+        <v>1.36</v>
+      </c>
+      <c r="X29">
         <v>3</v>
       </c>
-      <c r="S29">
-        <v>9</v>
-      </c>
-      <c r="T29">
-        <v>2.05</v>
-      </c>
-      <c r="U29">
-        <v>2.4</v>
-      </c>
-      <c r="V29">
-        <v>5.5</v>
-      </c>
-      <c r="W29">
-        <v>1.33</v>
-      </c>
-      <c r="X29">
-        <v>3.25</v>
-      </c>
       <c r="Y29">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA29">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB29">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC29">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="AD29">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AE29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="AF29">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH29">
         <v>1.25</v>
       </c>
       <c r="AI29">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="AJ29">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AK29">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AL29">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AM29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN29">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AO29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP29">
+        <v>1.73</v>
+      </c>
+      <c r="AQ29">
         <v>1.5</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>0.5</v>
       </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
       <c r="AS29">
-        <v>0.82</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AU29">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="AV29">
-        <v>0.74</v>
+        <v>1.39</v>
       </c>
       <c r="AW29">
-        <v>2.21</v>
+        <v>3.59</v>
       </c>
       <c r="AX29">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="AY29">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>3.6</v>
+        <v>2.43</v>
       </c>
       <c r="BA29">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BB29">
         <v>1.58</v>
       </c>
       <c r="BC29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD29">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="BE29">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="BF29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BG29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BI29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ29">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="BK29">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -13581,7 +13581,7 @@
         <v>80</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -15258,7 +15258,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2374781</v>
+        <v>2374769</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -15273,175 +15273,175 @@
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
         <v>80</v>
       </c>
-      <c r="P75" t="s">
-        <v>215</v>
-      </c>
       <c r="Q75">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>6.5</v>
+      </c>
+      <c r="U75">
+        <v>2.2</v>
+      </c>
+      <c r="V75">
+        <v>2.1</v>
+      </c>
+      <c r="W75">
+        <v>1.36</v>
+      </c>
+      <c r="X75">
+        <v>2.97</v>
+      </c>
+      <c r="Y75">
+        <v>2.7</v>
+      </c>
+      <c r="Z75">
+        <v>1.43</v>
+      </c>
+      <c r="AA75">
+        <v>6.7</v>
+      </c>
+      <c r="AB75">
+        <v>1.09</v>
+      </c>
+      <c r="AC75">
+        <v>5.45</v>
+      </c>
+      <c r="AD75">
+        <v>3.95</v>
+      </c>
+      <c r="AE75">
+        <v>1.59</v>
+      </c>
+      <c r="AF75">
+        <v>1.05</v>
+      </c>
+      <c r="AG75">
+        <v>9</v>
+      </c>
+      <c r="AH75">
+        <v>1.29</v>
+      </c>
+      <c r="AI75">
+        <v>3.5</v>
+      </c>
+      <c r="AJ75">
+        <v>1.82</v>
+      </c>
+      <c r="AK75">
+        <v>1.99</v>
+      </c>
+      <c r="AL75">
+        <v>2</v>
+      </c>
+      <c r="AM75">
+        <v>1.73</v>
+      </c>
+      <c r="AN75">
+        <v>2.38</v>
+      </c>
+      <c r="AO75">
+        <v>1.22</v>
+      </c>
+      <c r="AP75">
+        <v>1.11</v>
+      </c>
+      <c r="AQ75">
+        <v>1.4</v>
+      </c>
+      <c r="AR75">
+        <v>2.17</v>
+      </c>
+      <c r="AS75">
+        <v>1.64</v>
+      </c>
+      <c r="AT75">
+        <v>2.09</v>
+      </c>
+      <c r="AU75">
+        <v>1.52</v>
+      </c>
+      <c r="AV75">
+        <v>1.6</v>
+      </c>
+      <c r="AW75">
+        <v>3.12</v>
+      </c>
+      <c r="AX75">
+        <v>4.05</v>
+      </c>
+      <c r="AY75">
+        <v>7</v>
+      </c>
+      <c r="AZ75">
+        <v>1.32</v>
+      </c>
+      <c r="BA75">
+        <v>1.29</v>
+      </c>
+      <c r="BB75">
+        <v>1.56</v>
+      </c>
+      <c r="BC75">
+        <v>1.82</v>
+      </c>
+      <c r="BD75">
+        <v>2.69</v>
+      </c>
+      <c r="BE75">
+        <v>3.64</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
         <v>3</v>
       </c>
-      <c r="S75">
-        <v>21</v>
-      </c>
-      <c r="T75">
-        <v>2.3</v>
-      </c>
-      <c r="U75">
-        <v>2.25</v>
-      </c>
-      <c r="V75">
-        <v>5</v>
-      </c>
-      <c r="W75">
-        <v>1.3</v>
-      </c>
-      <c r="X75">
-        <v>3.4</v>
-      </c>
-      <c r="Y75">
-        <v>2.5</v>
-      </c>
-      <c r="Z75">
-        <v>1.5</v>
-      </c>
-      <c r="AA75">
-        <v>6</v>
-      </c>
-      <c r="AB75">
-        <v>1.13</v>
-      </c>
-      <c r="AC75">
-        <v>1.77</v>
-      </c>
-      <c r="AD75">
-        <v>3.7</v>
-      </c>
-      <c r="AE75">
-        <v>4.3</v>
-      </c>
-      <c r="AF75">
-        <v>1.04</v>
-      </c>
-      <c r="AG75">
+      <c r="BH75">
         <v>10</v>
       </c>
-      <c r="AH75">
-        <v>1.22</v>
-      </c>
-      <c r="AI75">
-        <v>4</v>
-      </c>
-      <c r="AJ75">
-        <v>1.68</v>
-      </c>
-      <c r="AK75">
-        <v>2.19</v>
-      </c>
-      <c r="AL75">
-        <v>1.8</v>
-      </c>
-      <c r="AM75">
-        <v>1.91</v>
-      </c>
-      <c r="AN75">
-        <v>1.2</v>
-      </c>
-      <c r="AO75">
-        <v>1.25</v>
-      </c>
-      <c r="AP75">
-        <v>2.05</v>
-      </c>
-      <c r="AQ75">
-        <v>2.6</v>
-      </c>
-      <c r="AR75">
-        <v>1.5</v>
-      </c>
-      <c r="AS75">
-        <v>2.27</v>
-      </c>
-      <c r="AT75">
-        <v>1.27</v>
-      </c>
-      <c r="AU75">
-        <v>1.85</v>
-      </c>
-      <c r="AV75">
-        <v>1.35</v>
-      </c>
-      <c r="AW75">
-        <v>3.2</v>
-      </c>
-      <c r="AX75">
-        <v>1.36</v>
-      </c>
-      <c r="AY75">
-        <v>6.5</v>
-      </c>
-      <c r="AZ75">
-        <v>3.75</v>
-      </c>
-      <c r="BA75">
-        <v>1.28</v>
-      </c>
-      <c r="BB75">
-        <v>1.54</v>
-      </c>
-      <c r="BC75">
-        <v>1.95</v>
-      </c>
-      <c r="BD75">
-        <v>2.64</v>
-      </c>
-      <c r="BE75">
-        <v>3.48</v>
-      </c>
-      <c r="BF75">
+      <c r="BI75">
         <v>8</v>
       </c>
-      <c r="BG75">
-        <v>6</v>
-      </c>
-      <c r="BH75">
+      <c r="BJ75">
         <v>16</v>
       </c>
-      <c r="BI75">
-        <v>10</v>
-      </c>
-      <c r="BJ75">
-        <v>24</v>
-      </c>
       <c r="BK75">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:63">
@@ -15449,7 +15449,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2374769</v>
+        <v>2374781</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15464,175 +15464,175 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q76">
+        <v>18</v>
+      </c>
+      <c r="R76">
         <v>3</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76" t="s">
-        <v>131</v>
-      </c>
-      <c r="P76" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
       <c r="S76">
+        <v>21</v>
+      </c>
+      <c r="T76">
+        <v>2.3</v>
+      </c>
+      <c r="U76">
+        <v>2.25</v>
+      </c>
+      <c r="V76">
         <v>5</v>
       </c>
-      <c r="T76">
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>3.4</v>
+      </c>
+      <c r="Y76">
+        <v>2.5</v>
+      </c>
+      <c r="Z76">
+        <v>1.5</v>
+      </c>
+      <c r="AA76">
+        <v>6</v>
+      </c>
+      <c r="AB76">
+        <v>1.13</v>
+      </c>
+      <c r="AC76">
+        <v>1.77</v>
+      </c>
+      <c r="AD76">
+        <v>3.7</v>
+      </c>
+      <c r="AE76">
+        <v>4.3</v>
+      </c>
+      <c r="AF76">
+        <v>1.04</v>
+      </c>
+      <c r="AG76">
+        <v>10</v>
+      </c>
+      <c r="AH76">
+        <v>1.22</v>
+      </c>
+      <c r="AI76">
+        <v>4</v>
+      </c>
+      <c r="AJ76">
+        <v>1.68</v>
+      </c>
+      <c r="AK76">
+        <v>2.19</v>
+      </c>
+      <c r="AL76">
+        <v>1.8</v>
+      </c>
+      <c r="AM76">
+        <v>1.91</v>
+      </c>
+      <c r="AN76">
+        <v>1.2</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>2.05</v>
+      </c>
+      <c r="AQ76">
+        <v>2.6</v>
+      </c>
+      <c r="AR76">
+        <v>1.5</v>
+      </c>
+      <c r="AS76">
+        <v>2.27</v>
+      </c>
+      <c r="AT76">
+        <v>1.27</v>
+      </c>
+      <c r="AU76">
+        <v>1.85</v>
+      </c>
+      <c r="AV76">
+        <v>1.35</v>
+      </c>
+      <c r="AW76">
+        <v>3.2</v>
+      </c>
+      <c r="AX76">
+        <v>1.36</v>
+      </c>
+      <c r="AY76">
         <v>6.5</v>
       </c>
-      <c r="U76">
-        <v>2.2</v>
-      </c>
-      <c r="V76">
-        <v>2.1</v>
-      </c>
-      <c r="W76">
-        <v>1.36</v>
-      </c>
-      <c r="X76">
-        <v>2.97</v>
-      </c>
-      <c r="Y76">
-        <v>2.7</v>
-      </c>
-      <c r="Z76">
-        <v>1.43</v>
-      </c>
-      <c r="AA76">
-        <v>6.7</v>
-      </c>
-      <c r="AB76">
-        <v>1.09</v>
-      </c>
-      <c r="AC76">
-        <v>5.45</v>
-      </c>
-      <c r="AD76">
-        <v>3.95</v>
-      </c>
-      <c r="AE76">
-        <v>1.59</v>
-      </c>
-      <c r="AF76">
-        <v>1.05</v>
-      </c>
-      <c r="AG76">
-        <v>9</v>
-      </c>
-      <c r="AH76">
-        <v>1.29</v>
-      </c>
-      <c r="AI76">
-        <v>3.5</v>
-      </c>
-      <c r="AJ76">
-        <v>1.82</v>
-      </c>
-      <c r="AK76">
-        <v>1.99</v>
-      </c>
-      <c r="AL76">
-        <v>2</v>
-      </c>
-      <c r="AM76">
-        <v>1.73</v>
-      </c>
-      <c r="AN76">
-        <v>2.38</v>
-      </c>
-      <c r="AO76">
-        <v>1.22</v>
-      </c>
-      <c r="AP76">
-        <v>1.11</v>
-      </c>
-      <c r="AQ76">
-        <v>1.4</v>
-      </c>
-      <c r="AR76">
-        <v>2.17</v>
-      </c>
-      <c r="AS76">
-        <v>1.64</v>
-      </c>
-      <c r="AT76">
-        <v>2.09</v>
-      </c>
-      <c r="AU76">
-        <v>1.52</v>
-      </c>
-      <c r="AV76">
-        <v>1.6</v>
-      </c>
-      <c r="AW76">
-        <v>3.12</v>
-      </c>
-      <c r="AX76">
-        <v>4.05</v>
-      </c>
-      <c r="AY76">
-        <v>7</v>
-      </c>
       <c r="AZ76">
-        <v>1.32</v>
+        <v>3.75</v>
       </c>
       <c r="BA76">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BB76">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="BC76">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BD76">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="BE76">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="BF76">
+        <v>8</v>
+      </c>
+      <c r="BG76">
         <v>6</v>
       </c>
-      <c r="BG76">
-        <v>3</v>
-      </c>
       <c r="BH76">
+        <v>16</v>
+      </c>
+      <c r="BI76">
         <v>10</v>
       </c>
-      <c r="BI76">
-        <v>8</v>
-      </c>
       <c r="BJ76">
+        <v>24</v>
+      </c>
+      <c r="BK76">
         <v>16</v>
-      </c>
-      <c r="BK76">
-        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -21561,7 +21561,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2375066</v>
+        <v>2375064</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
@@ -21576,142 +21576,142 @@
         <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H108" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="P108" t="s">
         <v>232</v>
       </c>
       <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
         <v>4</v>
       </c>
-      <c r="R108">
-        <v>3</v>
-      </c>
       <c r="S108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>2.25</v>
+      </c>
+      <c r="V108">
+        <v>4.33</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+      <c r="X108">
+        <v>3.4</v>
+      </c>
+      <c r="Y108">
+        <v>2.5</v>
+      </c>
+      <c r="Z108">
+        <v>1.5</v>
+      </c>
+      <c r="AA108">
+        <v>6</v>
+      </c>
+      <c r="AB108">
+        <v>1.13</v>
+      </c>
+      <c r="AC108">
+        <v>1.85</v>
+      </c>
+      <c r="AD108">
+        <v>3.75</v>
+      </c>
+      <c r="AE108">
         <v>4</v>
       </c>
-      <c r="U108">
-        <v>2.1</v>
-      </c>
-      <c r="V108">
-        <v>2.75</v>
-      </c>
-      <c r="W108">
-        <v>1.4</v>
-      </c>
-      <c r="X108">
-        <v>2.75</v>
-      </c>
-      <c r="Y108">
-        <v>3</v>
-      </c>
-      <c r="Z108">
-        <v>1.36</v>
-      </c>
-      <c r="AA108">
-        <v>8</v>
-      </c>
-      <c r="AB108">
-        <v>1.08</v>
-      </c>
-      <c r="AC108">
-        <v>3.5</v>
-      </c>
-      <c r="AD108">
-        <v>3.5</v>
-      </c>
-      <c r="AE108">
-        <v>2.1</v>
-      </c>
       <c r="AF108">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG108">
-        <v>9.949999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AH108">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AI108">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AJ108">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AL108">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AM108">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AN108">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="AO108">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR108">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AS108">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AU108">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AV108">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AW108">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="AX108">
-        <v>2.34</v>
+        <v>1.57</v>
       </c>
       <c r="AY108">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ108">
-        <v>1.87</v>
+        <v>3.01</v>
       </c>
       <c r="BA108">
         <v>1.29</v>
@@ -21720,31 +21720,31 @@
         <v>1.54</v>
       </c>
       <c r="BC108">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BD108">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="BE108">
         <v>3.1</v>
       </c>
       <c r="BF108">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG108">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH108">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI108">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ108">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK108">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:63">
@@ -21752,7 +21752,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2375064</v>
+        <v>2375066</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
@@ -21767,142 +21767,142 @@
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O109" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="P109" t="s">
         <v>233</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>7</v>
+      </c>
+      <c r="T109">
         <v>4</v>
       </c>
-      <c r="S109">
-        <v>5</v>
-      </c>
-      <c r="T109">
-        <v>2.5</v>
-      </c>
       <c r="U109">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V109">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="W109">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X109">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y109">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z109">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA109">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB109">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AC109">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="AD109">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AE109">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="AF109">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG109">
-        <v>12.5</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AH109">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AI109">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="AJ109">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AL109">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AM109">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AN109">
+        <v>1.72</v>
+      </c>
+      <c r="AO109">
         <v>1.25</v>
       </c>
-      <c r="AO109">
-        <v>1.29</v>
-      </c>
       <c r="AP109">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AT109">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AU109">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AV109">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="AW109">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="AX109">
-        <v>1.57</v>
+        <v>2.34</v>
       </c>
       <c r="AY109">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AZ109">
-        <v>3.01</v>
+        <v>1.87</v>
       </c>
       <c r="BA109">
         <v>1.29</v>
@@ -21911,31 +21911,31 @@
         <v>1.54</v>
       </c>
       <c r="BC109">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BD109">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="BE109">
         <v>3.1</v>
       </c>
       <c r="BF109">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG109">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BH109">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI109">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BJ109">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BK109">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:63">
@@ -21943,7 +21943,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2375070</v>
+        <v>2375071</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -21958,175 +21958,175 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H110" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>80</v>
+      </c>
+      <c r="P110" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
         <v>3</v>
       </c>
-      <c r="O110" t="s">
-        <v>154</v>
-      </c>
-      <c r="P110" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q110">
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>4.75</v>
+      </c>
+      <c r="U110">
+        <v>2.38</v>
+      </c>
+      <c r="V110">
+        <v>2.25</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110">
+        <v>2.62</v>
+      </c>
+      <c r="Z110">
+        <v>1.44</v>
+      </c>
+      <c r="AA110">
+        <v>6</v>
+      </c>
+      <c r="AB110">
+        <v>1.11</v>
+      </c>
+      <c r="AC110">
+        <v>4.2</v>
+      </c>
+      <c r="AD110">
+        <v>4.33</v>
+      </c>
+      <c r="AE110">
+        <v>1.7</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9</v>
+      </c>
+      <c r="AH110">
+        <v>1.25</v>
+      </c>
+      <c r="AI110">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110">
+        <v>1.65</v>
+      </c>
+      <c r="AK110">
+        <v>2.2</v>
+      </c>
+      <c r="AL110">
+        <v>1.67</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.85</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.22</v>
+      </c>
+      <c r="AQ110">
+        <v>0.89</v>
+      </c>
+      <c r="AR110">
+        <v>2.11</v>
+      </c>
+      <c r="AS110">
+        <v>0.82</v>
+      </c>
+      <c r="AT110">
+        <v>2.09</v>
+      </c>
+      <c r="AU110">
+        <v>1.7</v>
+      </c>
+      <c r="AV110">
+        <v>1.66</v>
+      </c>
+      <c r="AW110">
+        <v>3.36</v>
+      </c>
+      <c r="AX110">
+        <v>3.1</v>
+      </c>
+      <c r="AY110">
+        <v>8.4</v>
+      </c>
+      <c r="AZ110">
+        <v>1.54</v>
+      </c>
+      <c r="BA110">
+        <v>1.35</v>
+      </c>
+      <c r="BB110">
+        <v>1.65</v>
+      </c>
+      <c r="BC110">
+        <v>1.95</v>
+      </c>
+      <c r="BD110">
+        <v>2.6</v>
+      </c>
+      <c r="BE110">
+        <v>3.5</v>
+      </c>
+      <c r="BF110">
         <v>4</v>
       </c>
-      <c r="R110">
-        <v>6</v>
-      </c>
-      <c r="S110">
-        <v>10</v>
-      </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>2.1</v>
-      </c>
-      <c r="V110">
-        <v>3.1</v>
-      </c>
-      <c r="W110">
-        <v>1.4</v>
-      </c>
-      <c r="X110">
-        <v>2.75</v>
-      </c>
-      <c r="Y110">
-        <v>2.75</v>
-      </c>
-      <c r="Z110">
-        <v>1.4</v>
-      </c>
-      <c r="AA110">
-        <v>6.5</v>
-      </c>
-      <c r="AB110">
-        <v>1.1</v>
-      </c>
-      <c r="AC110">
-        <v>2.9</v>
-      </c>
-      <c r="AD110">
-        <v>3.4</v>
-      </c>
-      <c r="AE110">
-        <v>2.4</v>
-      </c>
-      <c r="AF110">
-        <v>1.06</v>
-      </c>
-      <c r="AG110">
-        <v>8</v>
-      </c>
-      <c r="AH110">
-        <v>1.33</v>
-      </c>
-      <c r="AI110">
-        <v>3.25</v>
-      </c>
-      <c r="AJ110">
-        <v>1.95</v>
-      </c>
-      <c r="AK110">
-        <v>1.85</v>
-      </c>
-      <c r="AL110">
-        <v>1.73</v>
-      </c>
-      <c r="AM110">
-        <v>2</v>
-      </c>
-      <c r="AN110">
-        <v>1.5</v>
-      </c>
-      <c r="AO110">
-        <v>1.3</v>
-      </c>
-      <c r="AP110">
-        <v>1.44</v>
-      </c>
-      <c r="AQ110">
-        <v>1.22</v>
-      </c>
-      <c r="AR110">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS110">
-        <v>1.27</v>
-      </c>
-      <c r="AT110">
-        <v>0.45</v>
-      </c>
-      <c r="AU110">
-        <v>1.19</v>
-      </c>
-      <c r="AV110">
-        <v>1.28</v>
-      </c>
-      <c r="AW110">
-        <v>2.47</v>
-      </c>
-      <c r="AX110">
-        <v>2.05</v>
-      </c>
-      <c r="AY110">
-        <v>8.1</v>
-      </c>
-      <c r="AZ110">
-        <v>2.05</v>
-      </c>
-      <c r="BA110">
-        <v>1.27</v>
-      </c>
-      <c r="BB110">
-        <v>1.61</v>
-      </c>
-      <c r="BC110">
-        <v>2.38</v>
-      </c>
-      <c r="BD110">
-        <v>2.46</v>
-      </c>
-      <c r="BE110">
+      <c r="BG110">
         <v>3</v>
       </c>
-      <c r="BF110">
-        <v>6</v>
-      </c>
-      <c r="BG110">
-        <v>9</v>
-      </c>
       <c r="BH110">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI110">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BJ110">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK110">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:63">
@@ -22134,7 +22134,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2375071</v>
+        <v>2375070</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22149,175 +22149,175 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O111" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Q111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>3.1</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>2.75</v>
+      </c>
+      <c r="Y111">
+        <v>2.75</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>6.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.1</v>
+      </c>
+      <c r="AC111">
+        <v>2.9</v>
+      </c>
+      <c r="AD111">
+        <v>3.4</v>
+      </c>
+      <c r="AE111">
+        <v>2.4</v>
+      </c>
+      <c r="AF111">
+        <v>1.06</v>
+      </c>
+      <c r="AG111">
+        <v>8</v>
+      </c>
+      <c r="AH111">
+        <v>1.33</v>
+      </c>
+      <c r="AI111">
+        <v>3.25</v>
+      </c>
+      <c r="AJ111">
+        <v>1.95</v>
+      </c>
+      <c r="AK111">
+        <v>1.85</v>
+      </c>
+      <c r="AL111">
+        <v>1.73</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.5</v>
+      </c>
+      <c r="AO111">
+        <v>1.3</v>
+      </c>
+      <c r="AP111">
+        <v>1.44</v>
+      </c>
+      <c r="AQ111">
+        <v>1.22</v>
+      </c>
+      <c r="AR111">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS111">
+        <v>1.27</v>
+      </c>
+      <c r="AT111">
+        <v>0.45</v>
+      </c>
+      <c r="AU111">
+        <v>1.19</v>
+      </c>
+      <c r="AV111">
+        <v>1.28</v>
+      </c>
+      <c r="AW111">
+        <v>2.47</v>
+      </c>
+      <c r="AX111">
+        <v>2.05</v>
+      </c>
+      <c r="AY111">
+        <v>8.1</v>
+      </c>
+      <c r="AZ111">
+        <v>2.05</v>
+      </c>
+      <c r="BA111">
+        <v>1.27</v>
+      </c>
+      <c r="BB111">
+        <v>1.61</v>
+      </c>
+      <c r="BC111">
+        <v>2.38</v>
+      </c>
+      <c r="BD111">
+        <v>2.46</v>
+      </c>
+      <c r="BE111">
         <v>3</v>
       </c>
-      <c r="S111">
-        <v>8</v>
-      </c>
-      <c r="T111">
-        <v>4.75</v>
-      </c>
-      <c r="U111">
-        <v>2.38</v>
-      </c>
-      <c r="V111">
-        <v>2.25</v>
-      </c>
-      <c r="W111">
-        <v>1.36</v>
-      </c>
-      <c r="X111">
-        <v>3</v>
-      </c>
-      <c r="Y111">
-        <v>2.62</v>
-      </c>
-      <c r="Z111">
-        <v>1.44</v>
-      </c>
-      <c r="AA111">
+      <c r="BF111">
         <v>6</v>
       </c>
-      <c r="AB111">
-        <v>1.11</v>
-      </c>
-      <c r="AC111">
-        <v>4.2</v>
-      </c>
-      <c r="AD111">
-        <v>4.33</v>
-      </c>
-      <c r="AE111">
-        <v>1.7</v>
-      </c>
-      <c r="AF111">
-        <v>1.05</v>
-      </c>
-      <c r="AG111">
+      <c r="BG111">
         <v>9</v>
       </c>
-      <c r="AH111">
-        <v>1.25</v>
-      </c>
-      <c r="AI111">
-        <v>3.75</v>
-      </c>
-      <c r="AJ111">
-        <v>1.65</v>
-      </c>
-      <c r="AK111">
-        <v>2.2</v>
-      </c>
-      <c r="AL111">
-        <v>1.67</v>
-      </c>
-      <c r="AM111">
-        <v>2.1</v>
-      </c>
-      <c r="AN111">
-        <v>1.85</v>
-      </c>
-      <c r="AO111">
-        <v>1.29</v>
-      </c>
-      <c r="AP111">
-        <v>1.22</v>
-      </c>
-      <c r="AQ111">
-        <v>0.89</v>
-      </c>
-      <c r="AR111">
-        <v>2.11</v>
-      </c>
-      <c r="AS111">
-        <v>0.82</v>
-      </c>
-      <c r="AT111">
-        <v>2.09</v>
-      </c>
-      <c r="AU111">
-        <v>1.7</v>
-      </c>
-      <c r="AV111">
-        <v>1.66</v>
-      </c>
-      <c r="AW111">
-        <v>3.36</v>
-      </c>
-      <c r="AX111">
-        <v>3.1</v>
-      </c>
-      <c r="AY111">
-        <v>8.4</v>
-      </c>
-      <c r="AZ111">
-        <v>1.54</v>
-      </c>
-      <c r="BA111">
-        <v>1.35</v>
-      </c>
-      <c r="BB111">
-        <v>1.65</v>
-      </c>
-      <c r="BC111">
-        <v>1.95</v>
-      </c>
-      <c r="BD111">
-        <v>2.6</v>
-      </c>
-      <c r="BE111">
-        <v>3.5</v>
-      </c>
-      <c r="BF111">
-        <v>4</v>
-      </c>
-      <c r="BG111">
-        <v>3</v>
-      </c>
       <c r="BH111">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI111">
+        <v>10</v>
+      </c>
+      <c r="BJ111">
         <v>13</v>
       </c>
-      <c r="BJ111">
-        <v>16</v>
-      </c>
       <c r="BK111">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -22516,7 +22516,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2375075</v>
+        <v>2375072</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22531,79 +22531,79 @@
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O113" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
         <v>4</v>
       </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
       <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>4.75</v>
+      </c>
+      <c r="U113">
+        <v>2.3</v>
+      </c>
+      <c r="V113">
+        <v>2.3</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.5</v>
+      </c>
+      <c r="AA113">
         <v>6</v>
       </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>2.1</v>
-      </c>
-      <c r="V113">
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>4.33</v>
+      </c>
+      <c r="AD113">
         <v>4</v>
       </c>
-      <c r="W113">
-        <v>1.4</v>
-      </c>
-      <c r="X113">
-        <v>2.75</v>
-      </c>
-      <c r="Y113">
-        <v>2.75</v>
-      </c>
-      <c r="Z113">
-        <v>1.4</v>
-      </c>
-      <c r="AA113">
-        <v>6.5</v>
-      </c>
-      <c r="AB113">
-        <v>1.1</v>
-      </c>
-      <c r="AC113">
-        <v>2.05</v>
-      </c>
-      <c r="AD113">
-        <v>3.6</v>
-      </c>
       <c r="AE113">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="AF113">
         <v>1.05</v>
@@ -22612,94 +22612,94 @@
         <v>9</v>
       </c>
       <c r="AH113">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI113">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ113">
+        <v>1.75</v>
+      </c>
+      <c r="AK113">
         <v>2.05</v>
       </c>
-      <c r="AK113">
+      <c r="AL113">
+        <v>1.73</v>
+      </c>
+      <c r="AM113">
+        <v>2</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.2</v>
+      </c>
+      <c r="AQ113">
+        <v>1.44</v>
+      </c>
+      <c r="AR113">
+        <v>1.89</v>
+      </c>
+      <c r="AS113">
+        <v>1.55</v>
+      </c>
+      <c r="AT113">
+        <v>1.73</v>
+      </c>
+      <c r="AU113">
+        <v>1.27</v>
+      </c>
+      <c r="AV113">
+        <v>1.85</v>
+      </c>
+      <c r="AW113">
+        <v>3.12</v>
+      </c>
+      <c r="AX113">
+        <v>3.01</v>
+      </c>
+      <c r="AY113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ113">
+        <v>1.57</v>
+      </c>
+      <c r="BA113">
+        <v>1.37</v>
+      </c>
+      <c r="BB113">
         <v>1.75</v>
       </c>
-      <c r="AL113">
-        <v>1.83</v>
-      </c>
-      <c r="AM113">
-        <v>1.83</v>
-      </c>
-      <c r="AN113">
-        <v>1.25</v>
-      </c>
-      <c r="AO113">
-        <v>1.29</v>
-      </c>
-      <c r="AP113">
-        <v>1.8</v>
-      </c>
-      <c r="AQ113">
-        <v>2.11</v>
-      </c>
-      <c r="AR113">
-        <v>1.56</v>
-      </c>
-      <c r="AS113">
-        <v>2</v>
-      </c>
-      <c r="AT113">
-        <v>1.27</v>
-      </c>
-      <c r="AU113">
-        <v>2.01</v>
-      </c>
-      <c r="AV113">
-        <v>1.39</v>
-      </c>
-      <c r="AW113">
-        <v>3.4</v>
-      </c>
-      <c r="AX113">
-        <v>1.57</v>
-      </c>
-      <c r="AY113">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ113">
-        <v>2.9</v>
-      </c>
-      <c r="BA113">
-        <v>1.2</v>
-      </c>
-      <c r="BB113">
-        <v>1.4</v>
-      </c>
       <c r="BC113">
-        <v>1.9</v>
+        <v>2.17</v>
       </c>
       <c r="BD113">
-        <v>2.17</v>
+        <v>2.91</v>
       </c>
       <c r="BE113">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="BF113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI113">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BJ113">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BK113">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:63">
@@ -22707,7 +22707,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2375072</v>
+        <v>2375075</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22722,79 +22722,79 @@
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H114" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>6</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>2.1</v>
+      </c>
+      <c r="V114">
         <v>4</v>
       </c>
-      <c r="S114">
-        <v>5</v>
-      </c>
-      <c r="T114">
-        <v>4.75</v>
-      </c>
-      <c r="U114">
-        <v>2.3</v>
-      </c>
-      <c r="V114">
-        <v>2.3</v>
-      </c>
       <c r="W114">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X114">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z114">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA114">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB114">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC114">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="AD114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE114">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="AF114">
         <v>1.05</v>
@@ -22803,94 +22803,94 @@
         <v>9</v>
       </c>
       <c r="AH114">
+        <v>1.29</v>
+      </c>
+      <c r="AI114">
+        <v>3.5</v>
+      </c>
+      <c r="AJ114">
+        <v>2.05</v>
+      </c>
+      <c r="AK114">
+        <v>1.75</v>
+      </c>
+      <c r="AL114">
+        <v>1.83</v>
+      </c>
+      <c r="AM114">
+        <v>1.83</v>
+      </c>
+      <c r="AN114">
         <v>1.25</v>
       </c>
-      <c r="AI114">
-        <v>3.75</v>
-      </c>
-      <c r="AJ114">
-        <v>1.75</v>
-      </c>
-      <c r="AK114">
-        <v>2.05</v>
-      </c>
-      <c r="AL114">
-        <v>1.73</v>
-      </c>
-      <c r="AM114">
-        <v>2</v>
-      </c>
-      <c r="AN114">
-        <v>2</v>
-      </c>
       <c r="AO114">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP114">
+        <v>1.8</v>
+      </c>
+      <c r="AQ114">
+        <v>2.11</v>
+      </c>
+      <c r="AR114">
+        <v>1.56</v>
+      </c>
+      <c r="AS114">
+        <v>2</v>
+      </c>
+      <c r="AT114">
+        <v>1.27</v>
+      </c>
+      <c r="AU114">
+        <v>2.01</v>
+      </c>
+      <c r="AV114">
+        <v>1.39</v>
+      </c>
+      <c r="AW114">
+        <v>3.4</v>
+      </c>
+      <c r="AX114">
+        <v>1.57</v>
+      </c>
+      <c r="AY114">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ114">
+        <v>2.9</v>
+      </c>
+      <c r="BA114">
         <v>1.2</v>
       </c>
-      <c r="AQ114">
-        <v>1.44</v>
-      </c>
-      <c r="AR114">
-        <v>1.89</v>
-      </c>
-      <c r="AS114">
-        <v>1.55</v>
-      </c>
-      <c r="AT114">
-        <v>1.73</v>
-      </c>
-      <c r="AU114">
-        <v>1.27</v>
-      </c>
-      <c r="AV114">
-        <v>1.85</v>
-      </c>
-      <c r="AW114">
-        <v>3.12</v>
-      </c>
-      <c r="AX114">
-        <v>3.01</v>
-      </c>
-      <c r="AY114">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ114">
-        <v>1.57</v>
-      </c>
-      <c r="BA114">
-        <v>1.37</v>
-      </c>
       <c r="BB114">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="BC114">
+        <v>1.9</v>
+      </c>
+      <c r="BD114">
         <v>2.17</v>
       </c>
-      <c r="BD114">
-        <v>2.91</v>
-      </c>
       <c r="BE114">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="BF114">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH114">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI114">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BJ114">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BK114">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -25381,7 +25381,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2375091</v>
+        <v>2375088</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
@@ -25396,19 +25396,19 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H128" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L128">
         <v>2</v>
@@ -25426,145 +25426,145 @@
         <v>242</v>
       </c>
       <c r="Q128">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T128">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="U128">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V128">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="W128">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="X128">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="Y128">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="Z128">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AA128">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB128">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AC128">
+        <v>1.93</v>
+      </c>
+      <c r="AD128">
+        <v>3.3</v>
+      </c>
+      <c r="AE128">
+        <v>3.6</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>11.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.29</v>
+      </c>
+      <c r="AI128">
+        <v>3.32</v>
+      </c>
+      <c r="AJ128">
+        <v>1.93</v>
+      </c>
+      <c r="AK128">
+        <v>1.78</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.91</v>
+      </c>
+      <c r="AN128">
+        <v>1.25</v>
+      </c>
+      <c r="AO128">
+        <v>1.28</v>
+      </c>
+      <c r="AP128">
+        <v>1.8</v>
+      </c>
+      <c r="AQ128">
+        <v>1.6</v>
+      </c>
+      <c r="AR128">
+        <v>0.5</v>
+      </c>
+      <c r="AS128">
         <v>1.73</v>
       </c>
-      <c r="AD128">
-        <v>3.6</v>
-      </c>
-      <c r="AE128">
+      <c r="AT128">
+        <v>0.45</v>
+      </c>
+      <c r="AU128">
+        <v>1.78</v>
+      </c>
+      <c r="AV128">
+        <v>1.38</v>
+      </c>
+      <c r="AW128">
+        <v>3.16</v>
+      </c>
+      <c r="AX128">
+        <v>1.54</v>
+      </c>
+      <c r="AY128">
+        <v>5.75</v>
+      </c>
+      <c r="AZ128">
+        <v>3</v>
+      </c>
+      <c r="BA128">
+        <v>1.3</v>
+      </c>
+      <c r="BB128">
+        <v>1.66</v>
+      </c>
+      <c r="BC128">
+        <v>2</v>
+      </c>
+      <c r="BD128">
+        <v>2.65</v>
+      </c>
+      <c r="BE128">
+        <v>3.65</v>
+      </c>
+      <c r="BF128">
         <v>4</v>
       </c>
-      <c r="AF128">
-        <v>1.03</v>
-      </c>
-      <c r="AG128">
-        <v>14.75</v>
-      </c>
-      <c r="AH128">
-        <v>1.17</v>
-      </c>
-      <c r="AI128">
-        <v>4.3</v>
-      </c>
-      <c r="AJ128">
-        <v>1.69</v>
-      </c>
-      <c r="AK128">
-        <v>2.07</v>
-      </c>
-      <c r="AL128">
-        <v>1.67</v>
-      </c>
-      <c r="AM128">
-        <v>2.1</v>
-      </c>
-      <c r="AN128">
-        <v>1.18</v>
-      </c>
-      <c r="AO128">
-        <v>1.15</v>
-      </c>
-      <c r="AP128">
-        <v>2.05</v>
-      </c>
-      <c r="AQ128">
-        <v>1</v>
-      </c>
-      <c r="AR128">
-        <v>0.9</v>
-      </c>
-      <c r="AS128">
-        <v>1.18</v>
-      </c>
-      <c r="AT128">
-        <v>0.82</v>
-      </c>
-      <c r="AU128">
-        <v>1.52</v>
-      </c>
-      <c r="AV128">
-        <v>1.34</v>
-      </c>
-      <c r="AW128">
-        <v>2.86</v>
-      </c>
-      <c r="AX128">
-        <v>1.35</v>
-      </c>
-      <c r="AY128">
-        <v>6.75</v>
-      </c>
-      <c r="AZ128">
-        <v>3.8</v>
-      </c>
-      <c r="BA128">
-        <v>1.22</v>
-      </c>
-      <c r="BB128">
-        <v>1.43</v>
-      </c>
-      <c r="BC128">
-        <v>2</v>
-      </c>
-      <c r="BD128">
-        <v>2.22</v>
-      </c>
-      <c r="BE128">
-        <v>3.04</v>
-      </c>
-      <c r="BF128">
-        <v>7</v>
-      </c>
       <c r="BG128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH128">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI128">
         <v>7</v>
       </c>
       <c r="BJ128">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK128">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25572,7 +25572,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2375093</v>
+        <v>2375089</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25587,97 +25587,97 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
         <v>10</v>
       </c>
-      <c r="R129">
-        <v>3</v>
-      </c>
-      <c r="S129">
-        <v>13</v>
-      </c>
       <c r="T129">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="U129">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V129">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W129">
         <v>1.35</v>
       </c>
       <c r="X129">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="Y129">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Z129">
         <v>1.45</v>
       </c>
       <c r="AA129">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="AB129">
         <v>1.1</v>
       </c>
       <c r="AC129">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="AD129">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE129">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AF129">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG129">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH129">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AI129">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="AJ129">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="AK129">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="AL129">
         <v>1.67</v>
@@ -25686,61 +25686,61 @@
         <v>2.1</v>
       </c>
       <c r="AN129">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AO129">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AP129">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="AQ129">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="AR129">
         <v>1.1</v>
       </c>
       <c r="AS129">
-        <v>0.82</v>
+        <v>2.27</v>
       </c>
       <c r="AT129">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AU129">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AV129">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AW129">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="AX129">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AY129">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ129">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="BA129">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="BB129">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BC129">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BD129">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="BE129">
-        <v>5.1</v>
+        <v>3.34</v>
       </c>
       <c r="BF129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG129">
         <v>5</v>
@@ -25749,13 +25749,13 @@
         <v>6</v>
       </c>
       <c r="BI129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ129">
+        <v>11</v>
+      </c>
+      <c r="BK129">
         <v>10</v>
-      </c>
-      <c r="BK129">
-        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25763,7 +25763,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2375092</v>
+        <v>2375090</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25778,97 +25778,97 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H130" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N130">
         <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="P130" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
         <v>8</v>
       </c>
-      <c r="R130">
-        <v>2</v>
-      </c>
       <c r="S130">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T130">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="U130">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V130">
+        <v>2.38</v>
+      </c>
+      <c r="W130">
+        <v>1.38</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.8</v>
+      </c>
+      <c r="Z130">
+        <v>1.42</v>
+      </c>
+      <c r="AA130">
         <v>7</v>
       </c>
-      <c r="W130">
-        <v>1.26</v>
-      </c>
-      <c r="X130">
-        <v>3.64</v>
-      </c>
-      <c r="Y130">
-        <v>2.23</v>
-      </c>
-      <c r="Z130">
-        <v>1.62</v>
-      </c>
-      <c r="AA130">
-        <v>4.95</v>
-      </c>
       <c r="AB130">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AC130">
-        <v>1.33</v>
+        <v>4.33</v>
       </c>
       <c r="AD130">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AE130">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="AF130">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG130">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AH130">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AI130">
-        <v>4.85</v>
+        <v>3.6</v>
       </c>
       <c r="AJ130">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AK130">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="AL130">
         <v>1.8</v>
@@ -25877,76 +25877,76 @@
         <v>1.91</v>
       </c>
       <c r="AN130">
-        <v>1.07</v>
+        <v>2.15</v>
       </c>
       <c r="AO130">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AP130">
-        <v>3.22</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR130">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AS130">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AT130">
-        <v>0.64</v>
+        <v>2.09</v>
       </c>
       <c r="AU130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AV130">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="AW130">
-        <v>3.16</v>
+        <v>3.49</v>
       </c>
       <c r="AX130">
-        <v>1.16</v>
+        <v>2.9</v>
       </c>
       <c r="AY130">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AZ130">
-        <v>6.5</v>
+        <v>1.61</v>
       </c>
       <c r="BA130">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BB130">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="BC130">
         <v>2</v>
       </c>
       <c r="BD130">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="BE130">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="BF130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BG130">
+        <v>7</v>
+      </c>
+      <c r="BH130">
+        <v>3</v>
+      </c>
+      <c r="BI130">
+        <v>10</v>
+      </c>
+      <c r="BJ130">
         <v>5</v>
       </c>
-      <c r="BH130">
-        <v>15</v>
-      </c>
-      <c r="BI130">
-        <v>7</v>
-      </c>
-      <c r="BJ130">
-        <v>23</v>
-      </c>
       <c r="BK130">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -25954,7 +25954,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2375090</v>
+        <v>2375091</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -25969,175 +25969,175 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O131" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q131">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R131">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T131">
+        <v>2.3</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
         <v>4.75</v>
       </c>
-      <c r="U131">
-        <v>2.25</v>
-      </c>
-      <c r="V131">
-        <v>2.38</v>
-      </c>
       <c r="W131">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X131">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y131">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z131">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AA131">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AB131">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC131">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="AD131">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AE131">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="AF131">
         <v>1.03</v>
       </c>
       <c r="AG131">
-        <v>11.5</v>
+        <v>14.75</v>
       </c>
       <c r="AH131">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AI131">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="AJ131">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AK131">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="AL131">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AM131">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AN131">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="AO131">
+        <v>1.15</v>
+      </c>
+      <c r="AP131">
+        <v>2.05</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>0.9</v>
+      </c>
+      <c r="AS131">
+        <v>1.18</v>
+      </c>
+      <c r="AT131">
+        <v>0.82</v>
+      </c>
+      <c r="AU131">
+        <v>1.52</v>
+      </c>
+      <c r="AV131">
+        <v>1.34</v>
+      </c>
+      <c r="AW131">
+        <v>2.86</v>
+      </c>
+      <c r="AX131">
+        <v>1.35</v>
+      </c>
+      <c r="AY131">
+        <v>6.75</v>
+      </c>
+      <c r="AZ131">
+        <v>3.8</v>
+      </c>
+      <c r="BA131">
         <v>1.22</v>
       </c>
-      <c r="AP131">
-        <v>1.18</v>
-      </c>
-      <c r="AQ131">
-        <v>1.8</v>
-      </c>
-      <c r="AR131">
-        <v>2</v>
-      </c>
-      <c r="AS131">
-        <v>1.64</v>
-      </c>
-      <c r="AT131">
-        <v>2.09</v>
-      </c>
-      <c r="AU131">
-        <v>1.85</v>
-      </c>
-      <c r="AV131">
-        <v>1.64</v>
-      </c>
-      <c r="AW131">
-        <v>3.49</v>
-      </c>
-      <c r="AX131">
-        <v>2.9</v>
-      </c>
-      <c r="AY131">
-        <v>7.5</v>
-      </c>
-      <c r="AZ131">
-        <v>1.61</v>
-      </c>
-      <c r="BA131">
-        <v>1.3</v>
-      </c>
       <c r="BB131">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="BC131">
         <v>2</v>
       </c>
       <c r="BD131">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="BE131">
-        <v>3.75</v>
+        <v>3.04</v>
       </c>
       <c r="BF131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>5</v>
+      </c>
+      <c r="BI131">
         <v>7</v>
       </c>
-      <c r="BH131">
-        <v>3</v>
-      </c>
-      <c r="BI131">
+      <c r="BJ131">
+        <v>12</v>
+      </c>
+      <c r="BK131">
         <v>10</v>
-      </c>
-      <c r="BJ131">
-        <v>5</v>
-      </c>
-      <c r="BK131">
-        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26145,7 +26145,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2375089</v>
+        <v>2375092</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26160,175 +26160,175 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="Q132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S132">
         <v>10</v>
       </c>
       <c r="T132">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>7</v>
+      </c>
+      <c r="W132">
+        <v>1.26</v>
+      </c>
+      <c r="X132">
+        <v>3.64</v>
+      </c>
+      <c r="Y132">
+        <v>2.23</v>
+      </c>
+      <c r="Z132">
+        <v>1.62</v>
+      </c>
+      <c r="AA132">
+        <v>4.95</v>
+      </c>
+      <c r="AB132">
+        <v>1.15</v>
+      </c>
+      <c r="AC132">
+        <v>1.33</v>
+      </c>
+      <c r="AD132">
+        <v>4.75</v>
+      </c>
+      <c r="AE132">
+        <v>7</v>
+      </c>
+      <c r="AF132">
+        <v>1.02</v>
+      </c>
+      <c r="AG132">
+        <v>22</v>
+      </c>
+      <c r="AH132">
+        <v>1.13</v>
+      </c>
+      <c r="AI132">
+        <v>4.85</v>
+      </c>
+      <c r="AJ132">
+        <v>1.5</v>
+      </c>
+      <c r="AK132">
         <v>2.3</v>
       </c>
-      <c r="V132">
-        <v>4.33</v>
-      </c>
-      <c r="W132">
-        <v>1.35</v>
-      </c>
-      <c r="X132">
-        <v>3.05</v>
-      </c>
-      <c r="Y132">
-        <v>2.64</v>
-      </c>
-      <c r="Z132">
+      <c r="AL132">
+        <v>1.8</v>
+      </c>
+      <c r="AM132">
+        <v>1.91</v>
+      </c>
+      <c r="AN132">
+        <v>1.07</v>
+      </c>
+      <c r="AO132">
+        <v>1.15</v>
+      </c>
+      <c r="AP132">
+        <v>3.22</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>0.6</v>
+      </c>
+      <c r="AS132">
         <v>1.45</v>
       </c>
-      <c r="AA132">
-        <v>6.4</v>
-      </c>
-      <c r="AB132">
-        <v>1.1</v>
-      </c>
-      <c r="AC132">
-        <v>1.79</v>
-      </c>
-      <c r="AD132">
-        <v>3.5</v>
-      </c>
-      <c r="AE132">
-        <v>3.8</v>
-      </c>
-      <c r="AF132">
-        <v>1.01</v>
-      </c>
-      <c r="AG132">
-        <v>10</v>
-      </c>
-      <c r="AH132">
-        <v>1.23</v>
-      </c>
-      <c r="AI132">
-        <v>3.64</v>
-      </c>
-      <c r="AJ132">
-        <v>1.69</v>
-      </c>
-      <c r="AK132">
-        <v>2.08</v>
-      </c>
-      <c r="AL132">
-        <v>1.67</v>
-      </c>
-      <c r="AM132">
-        <v>2.1</v>
-      </c>
-      <c r="AN132">
-        <v>1.23</v>
-      </c>
-      <c r="AO132">
-        <v>1.27</v>
-      </c>
-      <c r="AP132">
-        <v>1.98</v>
-      </c>
-      <c r="AQ132">
-        <v>2.2</v>
-      </c>
-      <c r="AR132">
-        <v>1.1</v>
-      </c>
-      <c r="AS132">
-        <v>2.27</v>
-      </c>
       <c r="AT132">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AU132">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AV132">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="AW132">
-        <v>3.39</v>
+        <v>3.16</v>
       </c>
       <c r="AX132">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="AY132">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AZ132">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="BA132">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BB132">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="BC132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BD132">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="BE132">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="BF132">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG132">
         <v>5</v>
       </c>
       <c r="BH132">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BI132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ132">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BK132">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26336,7 +26336,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2375088</v>
+        <v>2375093</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26351,175 +26351,175 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H133" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>80</v>
+      </c>
+      <c r="P133" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q133">
+        <v>10</v>
+      </c>
+      <c r="R133">
         <v>3</v>
       </c>
-      <c r="O133" t="s">
-        <v>171</v>
-      </c>
-      <c r="P133" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q133">
-        <v>7</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
       <c r="S133">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T133">
+        <v>2.88</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>3.5</v>
+      </c>
+      <c r="W133">
+        <v>1.35</v>
+      </c>
+      <c r="X133">
+        <v>2.9</v>
+      </c>
+      <c r="Y133">
         <v>2.6</v>
       </c>
-      <c r="U133">
-        <v>2.2</v>
-      </c>
-      <c r="V133">
-        <v>4.33</v>
-      </c>
-      <c r="W133">
-        <v>1.41</v>
-      </c>
-      <c r="X133">
-        <v>2.79</v>
-      </c>
-      <c r="Y133">
-        <v>2.88</v>
-      </c>
       <c r="Z133">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AA133">
-        <v>7.4</v>
+        <v>5.75</v>
       </c>
       <c r="AB133">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC133">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="AD133">
         <v>3.3</v>
       </c>
       <c r="AE133">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AF133">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG133">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH133">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AI133">
-        <v>3.32</v>
+        <v>3.68</v>
       </c>
       <c r="AJ133">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AK133">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="AL133">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AM133">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AN133">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AO133">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR133">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS133">
-        <v>1.73</v>
+        <v>0.82</v>
       </c>
       <c r="AT133">
-        <v>0.45</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AV133">
+        <v>1.42</v>
+      </c>
+      <c r="AW133">
+        <v>3.12</v>
+      </c>
+      <c r="AX133">
+        <v>1.71</v>
+      </c>
+      <c r="AY133">
+        <v>5.5</v>
+      </c>
+      <c r="AZ133">
+        <v>2.45</v>
+      </c>
+      <c r="BA133">
         <v>1.38</v>
       </c>
-      <c r="AW133">
-        <v>3.16</v>
-      </c>
-      <c r="AX133">
-        <v>1.54</v>
-      </c>
-      <c r="AY133">
-        <v>5.75</v>
-      </c>
-      <c r="AZ133">
-        <v>3</v>
-      </c>
-      <c r="BA133">
-        <v>1.3</v>
-      </c>
       <c r="BB133">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="BC133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD133">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="BE133">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="BF133">
         <v>4</v>
       </c>
       <c r="BG133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH133">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI133">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ133">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BK133">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.45</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT5" t="n">
         <v>2.09</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.27</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.91</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU11" t="n">
         <v>1.49</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>0.73</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>1.91</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU18" t="n">
         <v>2.07</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.45</v>
@@ -4760,7 +4760,7 @@
         <v>1.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.02</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>2.09</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU24" t="n">
         <v>1.8</v>
@@ -5978,7 +5978,7 @@
         <v>2.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.05</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU28" t="n">
         <v>1.47</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>2.2</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>0.73</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
         <v>1.27</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.65</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU36" t="n">
         <v>1.76</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>0.91</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.37</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
         <v>2.09</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT42" t="n">
         <v>1.64</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU43" t="n">
         <v>1.82</v>
@@ -9429,7 +9429,7 @@
         <v>2.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.98</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU46" t="n">
         <v>1.8</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT47" t="n">
         <v>1.45</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1.59</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.27</v>
@@ -10850,7 +10850,7 @@
         <v>1.45</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU51" t="n">
         <v>2.2</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.64</v>
@@ -11256,7 +11256,7 @@
         <v>0.91</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.43</v>
@@ -12065,7 +12065,7 @@
         <v>1.2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
         <v>1.27</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU58" t="n">
         <v>1.27</v>
@@ -12471,10 +12471,10 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU59" t="n">
         <v>1.52</v>
@@ -12674,10 +12674,10 @@
         <v>0.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.92</v>
@@ -13083,7 +13083,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13692,7 +13692,7 @@
         <v>0.91</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU65" t="n">
         <v>1.38</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT66" t="n">
         <v>0.73</v>
@@ -14095,7 +14095,7 @@
         <v>0.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.49</v>
@@ -14504,7 +14504,7 @@
         <v>1.27</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU69" t="n">
         <v>1.19</v>
@@ -14707,7 +14707,7 @@
         <v>1.45</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU70" t="n">
         <v>2.01</v>
@@ -14907,7 +14907,7 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>1.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT72" t="n">
         <v>1.45</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT73" t="n">
         <v>1.64</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU77" t="n">
         <v>1.9</v>
@@ -16328,10 +16328,10 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU78" t="n">
         <v>1.99</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU81" t="n">
         <v>1.97</v>
@@ -17143,7 +17143,7 @@
         <v>1.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU82" t="n">
         <v>1.23</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -17749,10 +17749,10 @@
         <v>0.43</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,7 +17952,7 @@
         <v>1.17</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18358,10 +18358,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.26</v>
@@ -18764,10 +18764,10 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.85</v>
@@ -19173,7 +19173,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU92" t="n">
         <v>1.23</v>
@@ -19782,7 +19782,7 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT96" t="n">
         <v>0.73</v>
@@ -20185,7 +20185,7 @@
         <v>0.71</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -20794,7 +20794,7 @@
         <v>1.88</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT100" t="n">
         <v>1.64</v>
@@ -20997,10 +20997,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU101" t="n">
         <v>1.82</v>
@@ -21403,10 +21403,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.25</v>
@@ -21606,7 +21606,7 @@
         <v>1.63</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT104" t="n">
         <v>1.45</v>
@@ -21812,7 +21812,7 @@
         <v>2.27</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU105" t="n">
         <v>1.84</v>
@@ -22012,10 +22012,10 @@
         <v>0.75</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -22215,10 +22215,10 @@
         <v>1.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU107" t="n">
         <v>1.78</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT108" t="n">
         <v>1.27</v>
@@ -22824,7 +22824,7 @@
         <v>2.11</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT110" t="n">
         <v>2.09</v>
@@ -23030,7 +23030,7 @@
         <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.19</v>
@@ -23433,10 +23433,10 @@
         <v>1.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU113" t="n">
         <v>1.27</v>
@@ -24042,7 +24042,7 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT116" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>1.22</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
         <v>1.27</v>
@@ -24451,7 +24451,7 @@
         <v>2.27</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU118" t="n">
         <v>1.94</v>
@@ -24651,10 +24651,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU119" t="n">
         <v>1.82</v>
@@ -24857,7 +24857,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU120" t="n">
         <v>1.64</v>
@@ -25057,7 +25057,7 @@
         <v>1.22</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT121" t="n">
         <v>1</v>
@@ -25463,7 +25463,7 @@
         <v>1.4</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.27</v>
@@ -25872,7 +25872,7 @@
         <v>1.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU126" t="n">
         <v>2</v>
@@ -26275,7 +26275,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT127" t="n">
         <v>0.73</v>
@@ -26478,10 +26478,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26884,7 +26884,7 @@
         <v>2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
         <v>2.09</v>
@@ -27087,10 +27087,10 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU131" t="n">
         <v>1.52</v>
@@ -27293,7 +27293,7 @@
         <v>1.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU132" t="n">
         <v>1.9</v>
@@ -27493,7 +27493,7 @@
         <v>1.1</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT133" t="n">
         <v>1.27</v>
@@ -27548,6 +27548,1224 @@
       </c>
       <c r="BK133" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5676259</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45016.5625</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Nykøbing</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['65', '88']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>11</v>
+      </c>
+      <c r="R134" t="n">
+        <v>3</v>
+      </c>
+      <c r="S134" t="n">
+        <v>14</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5676256</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45016.58333333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>FC Helsingør</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4</v>
+      </c>
+      <c r="S135" t="n">
+        <v>10</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5676260</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hillerød</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Fremad Amager</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5676257</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['51', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>6</v>
+      </c>
+      <c r="R137" t="n">
+        <v>6</v>
+      </c>
+      <c r="S137" t="n">
+        <v>12</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V137" t="n">
+        <v>5</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5676258</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['58', '82', '86']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['30', '33']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>11</v>
+      </c>
+      <c r="S138" t="n">
+        <v>17</v>
+      </c>
+      <c r="T138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5676261</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>HB Køge</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['18', '19', '85']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>7</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT11" t="n">
         <v>1.58</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT12" t="n">
         <v>2.09</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT14" t="n">
         <v>1.27</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>1.79</v>
@@ -3745,7 +3745,7 @@
         <v>1.45</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU16" t="n">
         <v>2.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU20" t="n">
         <v>0.87</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.27</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>2.38</v>
@@ -5975,7 +5975,7 @@
         <v>1.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU30" t="n">
         <v>0.95</v>
@@ -6990,10 +6990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU32" t="n">
         <v>2.14</v>
@@ -8208,10 +8208,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU38" t="n">
         <v>1.26</v>
@@ -8411,7 +8411,7 @@
         <v>0.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -9023,7 +9023,7 @@
         <v>0.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.99</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9629,7 +9629,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT45" t="n">
         <v>1.27</v>
@@ -10038,7 +10038,7 @@
         <v>2.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU47" t="n">
         <v>1.78</v>
@@ -11053,7 +11053,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.1</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11459,7 +11459,7 @@
         <v>1.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU54" t="n">
         <v>1.55</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -13283,7 +13283,7 @@
         <v>2.4</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT63" t="n">
         <v>2.09</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.88</v>
@@ -13689,7 +13689,7 @@
         <v>2.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT65" t="n">
         <v>1.83</v>
@@ -13895,7 +13895,7 @@
         <v>0.75</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU66" t="n">
         <v>1.9</v>
@@ -14501,7 +14501,7 @@
         <v>1.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT69" t="n">
         <v>1.58</v>
@@ -15113,7 +15113,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15316,7 +15316,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>2.08</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU74" t="n">
         <v>1.89</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT76" t="n">
         <v>1.27</v>
@@ -16531,7 +16531,7 @@
         <v>0.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT79" t="n">
         <v>1.27</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT82" t="n">
         <v>0.58</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.93</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU84" t="n">
         <v>1.95</v>
@@ -18155,10 +18155,10 @@
         <v>1.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -18561,7 +18561,7 @@
         <v>1.86</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT89" t="n">
         <v>2.09</v>
@@ -19170,7 +19170,7 @@
         <v>2.14</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT92" t="n">
         <v>1.83</v>
@@ -19376,7 +19376,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU93" t="n">
         <v>1.56</v>
@@ -19576,10 +19576,10 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.91</v>
@@ -19985,7 +19985,7 @@
         <v>1.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.79</v>
@@ -20388,7 +20388,7 @@
         <v>1.63</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT98" t="n">
         <v>1.27</v>
@@ -20591,7 +20591,7 @@
         <v>1.14</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.5</v>
@@ -21609,7 +21609,7 @@
         <v>1.67</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU104" t="n">
         <v>1.85</v>
@@ -21809,7 +21809,7 @@
         <v>0.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT105" t="n">
         <v>0.58</v>
@@ -23027,7 +23027,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT111" t="n">
         <v>0.67</v>
@@ -23233,7 +23233,7 @@
         <v>1.45</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU112" t="n">
         <v>1.91</v>
@@ -23839,10 +23839,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -24045,7 +24045,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24448,7 +24448,7 @@
         <v>1.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
         <v>1.83</v>
@@ -25260,10 +25260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -25666,10 +25666,10 @@
         <v>1.6</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>2.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU127" t="n">
         <v>1.86</v>
@@ -26681,7 +26681,7 @@
         <v>1.1</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -27696,10 +27696,10 @@
         <v>0.77</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU134" t="n">
         <v>1.55</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT135" t="n">
         <v>1.48</v>
@@ -28105,7 +28105,7 @@
         <v>1.48</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AU136" t="n">
         <v>1.27</v>
@@ -28511,7 +28511,7 @@
         <v>1.52</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU138" t="n">
         <v>1.74</v>
@@ -28711,7 +28711,7 @@
         <v>1.05</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AT139" t="n">
         <v>1.13</v>
@@ -28766,6 +28766,615 @@
       </c>
       <c r="BK139" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5682308</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Hvidovre</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>FC Helsingør</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>5</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['36', '57', '85']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['13', '25']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>6</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5676262</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Fremad Amager</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['9', '20', '49']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>9</v>
+      </c>
+      <c r="T141" t="n">
+        <v>4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5676263</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Nykøbing</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>HB Køge</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>8</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['28', '39', '67']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['34', '73', '74', '82', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>4</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>7</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark 1st Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT3" t="n">
         <v>0.75</v>
@@ -1512,7 +1512,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT16" t="n">
         <v>1.58</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
         <v>1.83</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU22" t="n">
         <v>1.35</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>1.82</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT26" t="n">
         <v>1.5</v>
@@ -6381,7 +6381,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT29" t="n">
         <v>0.67</v>
@@ -6790,7 +6790,7 @@
         <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>2.28</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU35" t="n">
         <v>1.72</v>
@@ -8614,10 +8614,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>2.2</v>
@@ -8820,7 +8820,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.06</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT43" t="n">
         <v>1.58</v>
@@ -9632,7 +9632,7 @@
         <v>1.17</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.26</v>
@@ -10647,7 +10647,7 @@
         <v>0.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.91</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT51" t="n">
         <v>1.58</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
         <v>0.92</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.87</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>1.2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT62" t="n">
         <v>0.75</v>
@@ -13286,7 +13286,7 @@
         <v>2.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>2.1</v>
@@ -13486,7 +13486,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU67" t="n">
         <v>1.94</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT70" t="n">
         <v>0.67</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT74" t="n">
         <v>0.92</v>
@@ -15719,10 +15719,10 @@
         <v>2.17</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -15925,7 +15925,7 @@
         <v>2.33</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.85</v>
@@ -16534,7 +16534,7 @@
         <v>0.83</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU79" t="n">
         <v>1.38</v>
@@ -16734,10 +16734,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU80" t="n">
         <v>2.01</v>
@@ -17546,7 +17546,7 @@
         <v>1.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT84" t="n">
         <v>1.58</v>
@@ -18564,7 +18564,7 @@
         <v>0.83</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -18967,10 +18967,10 @@
         <v>1.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU91" t="n">
         <v>1.57</v>
@@ -19373,7 +19373,7 @@
         <v>1.43</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT93" t="n">
         <v>1.58</v>
@@ -19779,7 +19779,7 @@
         <v>0.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT95" t="n">
         <v>0.58</v>
@@ -20188,7 +20188,7 @@
         <v>2.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU97" t="n">
         <v>1.91</v>
@@ -20391,7 +20391,7 @@
         <v>0.83</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU98" t="n">
         <v>1.42</v>
@@ -21200,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>2.03</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU108" t="n">
         <v>1.57</v>
@@ -22621,7 +22621,7 @@
         <v>1.38</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU110" t="n">
         <v>1.7</v>
@@ -23230,7 +23230,7 @@
         <v>0.89</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT112" t="n">
         <v>0.92</v>
@@ -23636,10 +23636,10 @@
         <v>1.56</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU114" t="n">
         <v>2.01</v>
@@ -24248,7 +24248,7 @@
         <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU117" t="n">
         <v>1.9</v>
@@ -24854,7 +24854,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT120" t="n">
         <v>0.58</v>
@@ -25466,7 +25466,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU123" t="n">
         <v>1.22</v>
@@ -25869,7 +25869,7 @@
         <v>1.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
         <v>1.58</v>
@@ -26072,7 +26072,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT126" t="n">
         <v>1.83</v>
@@ -26887,7 +26887,7 @@
         <v>1.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.85</v>
@@ -27290,7 +27290,7 @@
         <v>0.6</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT132" t="n">
         <v>0.58</v>
@@ -27496,7 +27496,7 @@
         <v>0.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU133" t="n">
         <v>1.7</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AU135" t="n">
         <v>1.78</v>
@@ -28102,7 +28102,7 @@
         <v>1.05</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT136" t="n">
         <v>0.96</v>
@@ -28305,10 +28305,10 @@
         <v>1.59</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AU137" t="n">
         <v>1.88</v>
@@ -28508,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AT138" t="n">
         <v>1.96</v>
@@ -28714,7 +28714,7 @@
         <v>1.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU139" t="n">
         <v>1.67</v>
@@ -29375,6 +29375,615 @@
       </c>
       <c r="BK142" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5676264</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45026.33333333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hillerød</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['37', '84']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>8</v>
+      </c>
+      <c r="S143" t="n">
+        <v>12</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5682309</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45026.375</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>6</v>
+      </c>
+      <c r="R144" t="n">
+        <v>4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>10</v>
+      </c>
+      <c r="T144" t="n">
+        <v>4</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5682310</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Denmark 1st Division</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45026.41666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>10</v>
+      </c>
+      <c r="R145" t="n">
+        <v>6</v>
+      </c>
+      <c r="S145" t="n">
+        <v>16</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
